--- a/bao_cao/tuan_2/man_hinh_chi_tiet/detail_register.xlsx
+++ b/bao_cao/tuan_2/man_hinh_chi_tiet/detail_register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thay-the\thay-tru\Source\office-supplies-mtt\bao_cao\tuan_2\man_hinh_chi_tiet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93241914-6062-4E49-B722-AB5628137921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676FC3C7-9409-4272-9698-2D99F7F0C04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{008F2CC6-B247-40D2-BEAE-CEDC72AA4234}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{008F2CC6-B247-40D2-BEAE-CEDC72AA4234}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bìa" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="144">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -677,15 +677,6 @@
     <t>Trường hợp nhập số điện thoại hơn hoặc ít hơn 10 số</t>
   </si>
   <si>
-    <t>NOT_FULL_FIELD, FULLNAME_MAX_LENGTH</t>
-  </si>
-  <si>
-    <t>NOT_FULL_FIELD, NOT_FORMART</t>
-  </si>
-  <si>
-    <t>NOT_FULL_FIELD, PASSWORD_MAX_LENGTH</t>
-  </si>
-  <si>
     <t>2. Call API  post để đăng ký http://localhost:8080/api/auth/signup</t>
   </si>
   <si>
@@ -711,6 +702,18 @@
   </si>
   <si>
     <t>Tạo mới</t>
+  </si>
+  <si>
+    <t>PHONE_NOT_BLANK, PHONE_MAX_LENGTH</t>
+  </si>
+  <si>
+    <t>EMAIL_NOT_BLANK,EMAIL_INVALID_FORMAT,EMAIL_INVALID_FORMAT</t>
+  </si>
+  <si>
+    <t>EMAIL_INVALID_FORMAT,PASSWORD_MAX_LENGTH,PASSWORD_MAX_LENGTH</t>
+  </si>
+  <si>
+    <t>NAME_NOT_BLANK,NAME_MAX_LENGTH</t>
   </si>
 </sst>
 </file>
@@ -2870,6 +2873,30 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2963,14 +2990,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3068,21 +3095,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="6" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3093,6 +3105,21 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3186,22 +3213,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3211,30 +3238,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4982,7 +4985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B0C9A7-769B-4EE8-BEF2-21411BFF9B9F}">
   <dimension ref="A1:AX161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A72" zoomScale="69" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A72" zoomScale="69" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="AR103" sqref="AR103"/>
     </sheetView>
   </sheetViews>
@@ -5402,259 +5405,259 @@
     </row>
     <row r="13" spans="1:49" ht="13.5" customHeight="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="337" t="s">
+      <c r="B13" s="343" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="338"/>
-      <c r="D13" s="338"/>
-      <c r="E13" s="338"/>
-      <c r="F13" s="338"/>
-      <c r="G13" s="338"/>
-      <c r="H13" s="338"/>
-      <c r="I13" s="338"/>
-      <c r="J13" s="338"/>
-      <c r="K13" s="338"/>
-      <c r="L13" s="338"/>
-      <c r="M13" s="338"/>
-      <c r="N13" s="338"/>
-      <c r="O13" s="338"/>
-      <c r="P13" s="338"/>
-      <c r="Q13" s="338"/>
-      <c r="R13" s="338"/>
-      <c r="S13" s="338"/>
-      <c r="T13" s="338"/>
-      <c r="U13" s="338"/>
-      <c r="V13" s="338"/>
-      <c r="W13" s="338"/>
-      <c r="X13" s="338"/>
-      <c r="Y13" s="338"/>
-      <c r="Z13" s="338"/>
-      <c r="AA13" s="338"/>
-      <c r="AB13" s="338"/>
-      <c r="AC13" s="338"/>
-      <c r="AD13" s="338"/>
-      <c r="AE13" s="338"/>
-      <c r="AF13" s="338"/>
-      <c r="AG13" s="338"/>
-      <c r="AH13" s="338"/>
-      <c r="AI13" s="338"/>
-      <c r="AJ13" s="338"/>
-      <c r="AK13" s="338"/>
-      <c r="AL13" s="338"/>
-      <c r="AM13" s="338"/>
-      <c r="AN13" s="338"/>
-      <c r="AO13" s="338"/>
-      <c r="AP13" s="338"/>
-      <c r="AQ13" s="338"/>
-      <c r="AR13" s="338"/>
-      <c r="AS13" s="338"/>
-      <c r="AT13" s="338"/>
-      <c r="AU13" s="338"/>
-      <c r="AV13" s="338"/>
+      <c r="C13" s="344"/>
+      <c r="D13" s="344"/>
+      <c r="E13" s="344"/>
+      <c r="F13" s="344"/>
+      <c r="G13" s="344"/>
+      <c r="H13" s="344"/>
+      <c r="I13" s="344"/>
+      <c r="J13" s="344"/>
+      <c r="K13" s="344"/>
+      <c r="L13" s="344"/>
+      <c r="M13" s="344"/>
+      <c r="N13" s="344"/>
+      <c r="O13" s="344"/>
+      <c r="P13" s="344"/>
+      <c r="Q13" s="344"/>
+      <c r="R13" s="344"/>
+      <c r="S13" s="344"/>
+      <c r="T13" s="344"/>
+      <c r="U13" s="344"/>
+      <c r="V13" s="344"/>
+      <c r="W13" s="344"/>
+      <c r="X13" s="344"/>
+      <c r="Y13" s="344"/>
+      <c r="Z13" s="344"/>
+      <c r="AA13" s="344"/>
+      <c r="AB13" s="344"/>
+      <c r="AC13" s="344"/>
+      <c r="AD13" s="344"/>
+      <c r="AE13" s="344"/>
+      <c r="AF13" s="344"/>
+      <c r="AG13" s="344"/>
+      <c r="AH13" s="344"/>
+      <c r="AI13" s="344"/>
+      <c r="AJ13" s="344"/>
+      <c r="AK13" s="344"/>
+      <c r="AL13" s="344"/>
+      <c r="AM13" s="344"/>
+      <c r="AN13" s="344"/>
+      <c r="AO13" s="344"/>
+      <c r="AP13" s="344"/>
+      <c r="AQ13" s="344"/>
+      <c r="AR13" s="344"/>
+      <c r="AS13" s="344"/>
+      <c r="AT13" s="344"/>
+      <c r="AU13" s="344"/>
+      <c r="AV13" s="344"/>
       <c r="AW13" s="6"/>
     </row>
     <row r="14" spans="1:49" ht="13.5" customHeight="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="338"/>
-      <c r="C14" s="338"/>
-      <c r="D14" s="338"/>
-      <c r="E14" s="338"/>
-      <c r="F14" s="338"/>
-      <c r="G14" s="338"/>
-      <c r="H14" s="338"/>
-      <c r="I14" s="338"/>
-      <c r="J14" s="338"/>
-      <c r="K14" s="338"/>
-      <c r="L14" s="338"/>
-      <c r="M14" s="338"/>
-      <c r="N14" s="338"/>
-      <c r="O14" s="338"/>
-      <c r="P14" s="338"/>
-      <c r="Q14" s="338"/>
-      <c r="R14" s="338"/>
-      <c r="S14" s="338"/>
-      <c r="T14" s="338"/>
-      <c r="U14" s="338"/>
-      <c r="V14" s="338"/>
-      <c r="W14" s="338"/>
-      <c r="X14" s="338"/>
-      <c r="Y14" s="338"/>
-      <c r="Z14" s="338"/>
-      <c r="AA14" s="338"/>
-      <c r="AB14" s="338"/>
-      <c r="AC14" s="338"/>
-      <c r="AD14" s="338"/>
-      <c r="AE14" s="338"/>
-      <c r="AF14" s="338"/>
-      <c r="AG14" s="338"/>
-      <c r="AH14" s="338"/>
-      <c r="AI14" s="338"/>
-      <c r="AJ14" s="338"/>
-      <c r="AK14" s="338"/>
-      <c r="AL14" s="338"/>
-      <c r="AM14" s="338"/>
-      <c r="AN14" s="338"/>
-      <c r="AO14" s="338"/>
-      <c r="AP14" s="338"/>
-      <c r="AQ14" s="338"/>
-      <c r="AR14" s="338"/>
-      <c r="AS14" s="338"/>
-      <c r="AT14" s="338"/>
-      <c r="AU14" s="338"/>
-      <c r="AV14" s="338"/>
+      <c r="B14" s="344"/>
+      <c r="C14" s="344"/>
+      <c r="D14" s="344"/>
+      <c r="E14" s="344"/>
+      <c r="F14" s="344"/>
+      <c r="G14" s="344"/>
+      <c r="H14" s="344"/>
+      <c r="I14" s="344"/>
+      <c r="J14" s="344"/>
+      <c r="K14" s="344"/>
+      <c r="L14" s="344"/>
+      <c r="M14" s="344"/>
+      <c r="N14" s="344"/>
+      <c r="O14" s="344"/>
+      <c r="P14" s="344"/>
+      <c r="Q14" s="344"/>
+      <c r="R14" s="344"/>
+      <c r="S14" s="344"/>
+      <c r="T14" s="344"/>
+      <c r="U14" s="344"/>
+      <c r="V14" s="344"/>
+      <c r="W14" s="344"/>
+      <c r="X14" s="344"/>
+      <c r="Y14" s="344"/>
+      <c r="Z14" s="344"/>
+      <c r="AA14" s="344"/>
+      <c r="AB14" s="344"/>
+      <c r="AC14" s="344"/>
+      <c r="AD14" s="344"/>
+      <c r="AE14" s="344"/>
+      <c r="AF14" s="344"/>
+      <c r="AG14" s="344"/>
+      <c r="AH14" s="344"/>
+      <c r="AI14" s="344"/>
+      <c r="AJ14" s="344"/>
+      <c r="AK14" s="344"/>
+      <c r="AL14" s="344"/>
+      <c r="AM14" s="344"/>
+      <c r="AN14" s="344"/>
+      <c r="AO14" s="344"/>
+      <c r="AP14" s="344"/>
+      <c r="AQ14" s="344"/>
+      <c r="AR14" s="344"/>
+      <c r="AS14" s="344"/>
+      <c r="AT14" s="344"/>
+      <c r="AU14" s="344"/>
+      <c r="AV14" s="344"/>
       <c r="AW14" s="6"/>
     </row>
     <row r="15" spans="1:49" ht="13.5" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="338"/>
-      <c r="C15" s="338"/>
-      <c r="D15" s="338"/>
-      <c r="E15" s="338"/>
-      <c r="F15" s="338"/>
-      <c r="G15" s="338"/>
-      <c r="H15" s="338"/>
-      <c r="I15" s="338"/>
-      <c r="J15" s="338"/>
-      <c r="K15" s="338"/>
-      <c r="L15" s="338"/>
-      <c r="M15" s="338"/>
-      <c r="N15" s="338"/>
-      <c r="O15" s="338"/>
-      <c r="P15" s="338"/>
-      <c r="Q15" s="338"/>
-      <c r="R15" s="338"/>
-      <c r="S15" s="338"/>
-      <c r="T15" s="338"/>
-      <c r="U15" s="338"/>
-      <c r="V15" s="338"/>
-      <c r="W15" s="338"/>
-      <c r="X15" s="338"/>
-      <c r="Y15" s="338"/>
-      <c r="Z15" s="338"/>
-      <c r="AA15" s="338"/>
-      <c r="AB15" s="338"/>
-      <c r="AC15" s="338"/>
-      <c r="AD15" s="338"/>
-      <c r="AE15" s="338"/>
-      <c r="AF15" s="338"/>
-      <c r="AG15" s="338"/>
-      <c r="AH15" s="338"/>
-      <c r="AI15" s="338"/>
-      <c r="AJ15" s="338"/>
-      <c r="AK15" s="338"/>
-      <c r="AL15" s="338"/>
-      <c r="AM15" s="338"/>
-      <c r="AN15" s="338"/>
-      <c r="AO15" s="338"/>
-      <c r="AP15" s="338"/>
-      <c r="AQ15" s="338"/>
-      <c r="AR15" s="338"/>
-      <c r="AS15" s="338"/>
-      <c r="AT15" s="338"/>
-      <c r="AU15" s="338"/>
-      <c r="AV15" s="338"/>
+      <c r="B15" s="344"/>
+      <c r="C15" s="344"/>
+      <c r="D15" s="344"/>
+      <c r="E15" s="344"/>
+      <c r="F15" s="344"/>
+      <c r="G15" s="344"/>
+      <c r="H15" s="344"/>
+      <c r="I15" s="344"/>
+      <c r="J15" s="344"/>
+      <c r="K15" s="344"/>
+      <c r="L15" s="344"/>
+      <c r="M15" s="344"/>
+      <c r="N15" s="344"/>
+      <c r="O15" s="344"/>
+      <c r="P15" s="344"/>
+      <c r="Q15" s="344"/>
+      <c r="R15" s="344"/>
+      <c r="S15" s="344"/>
+      <c r="T15" s="344"/>
+      <c r="U15" s="344"/>
+      <c r="V15" s="344"/>
+      <c r="W15" s="344"/>
+      <c r="X15" s="344"/>
+      <c r="Y15" s="344"/>
+      <c r="Z15" s="344"/>
+      <c r="AA15" s="344"/>
+      <c r="AB15" s="344"/>
+      <c r="AC15" s="344"/>
+      <c r="AD15" s="344"/>
+      <c r="AE15" s="344"/>
+      <c r="AF15" s="344"/>
+      <c r="AG15" s="344"/>
+      <c r="AH15" s="344"/>
+      <c r="AI15" s="344"/>
+      <c r="AJ15" s="344"/>
+      <c r="AK15" s="344"/>
+      <c r="AL15" s="344"/>
+      <c r="AM15" s="344"/>
+      <c r="AN15" s="344"/>
+      <c r="AO15" s="344"/>
+      <c r="AP15" s="344"/>
+      <c r="AQ15" s="344"/>
+      <c r="AR15" s="344"/>
+      <c r="AS15" s="344"/>
+      <c r="AT15" s="344"/>
+      <c r="AU15" s="344"/>
+      <c r="AV15" s="344"/>
       <c r="AW15" s="6"/>
     </row>
     <row r="16" spans="1:49" ht="13.5" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="338"/>
-      <c r="C16" s="338"/>
-      <c r="D16" s="338"/>
-      <c r="E16" s="338"/>
-      <c r="F16" s="338"/>
-      <c r="G16" s="338"/>
-      <c r="H16" s="338"/>
-      <c r="I16" s="338"/>
-      <c r="J16" s="338"/>
-      <c r="K16" s="338"/>
-      <c r="L16" s="338"/>
-      <c r="M16" s="338"/>
-      <c r="N16" s="338"/>
-      <c r="O16" s="338"/>
-      <c r="P16" s="338"/>
-      <c r="Q16" s="338"/>
-      <c r="R16" s="338"/>
-      <c r="S16" s="338"/>
-      <c r="T16" s="338"/>
-      <c r="U16" s="338"/>
-      <c r="V16" s="338"/>
-      <c r="W16" s="338"/>
-      <c r="X16" s="338"/>
-      <c r="Y16" s="338"/>
-      <c r="Z16" s="338"/>
-      <c r="AA16" s="338"/>
-      <c r="AB16" s="338"/>
-      <c r="AC16" s="338"/>
-      <c r="AD16" s="338"/>
-      <c r="AE16" s="338"/>
-      <c r="AF16" s="338"/>
-      <c r="AG16" s="338"/>
-      <c r="AH16" s="338"/>
-      <c r="AI16" s="338"/>
-      <c r="AJ16" s="338"/>
-      <c r="AK16" s="338"/>
-      <c r="AL16" s="338"/>
-      <c r="AM16" s="338"/>
-      <c r="AN16" s="338"/>
-      <c r="AO16" s="338"/>
-      <c r="AP16" s="338"/>
-      <c r="AQ16" s="338"/>
-      <c r="AR16" s="338"/>
-      <c r="AS16" s="338"/>
-      <c r="AT16" s="338"/>
-      <c r="AU16" s="338"/>
-      <c r="AV16" s="338"/>
+      <c r="B16" s="344"/>
+      <c r="C16" s="344"/>
+      <c r="D16" s="344"/>
+      <c r="E16" s="344"/>
+      <c r="F16" s="344"/>
+      <c r="G16" s="344"/>
+      <c r="H16" s="344"/>
+      <c r="I16" s="344"/>
+      <c r="J16" s="344"/>
+      <c r="K16" s="344"/>
+      <c r="L16" s="344"/>
+      <c r="M16" s="344"/>
+      <c r="N16" s="344"/>
+      <c r="O16" s="344"/>
+      <c r="P16" s="344"/>
+      <c r="Q16" s="344"/>
+      <c r="R16" s="344"/>
+      <c r="S16" s="344"/>
+      <c r="T16" s="344"/>
+      <c r="U16" s="344"/>
+      <c r="V16" s="344"/>
+      <c r="W16" s="344"/>
+      <c r="X16" s="344"/>
+      <c r="Y16" s="344"/>
+      <c r="Z16" s="344"/>
+      <c r="AA16" s="344"/>
+      <c r="AB16" s="344"/>
+      <c r="AC16" s="344"/>
+      <c r="AD16" s="344"/>
+      <c r="AE16" s="344"/>
+      <c r="AF16" s="344"/>
+      <c r="AG16" s="344"/>
+      <c r="AH16" s="344"/>
+      <c r="AI16" s="344"/>
+      <c r="AJ16" s="344"/>
+      <c r="AK16" s="344"/>
+      <c r="AL16" s="344"/>
+      <c r="AM16" s="344"/>
+      <c r="AN16" s="344"/>
+      <c r="AO16" s="344"/>
+      <c r="AP16" s="344"/>
+      <c r="AQ16" s="344"/>
+      <c r="AR16" s="344"/>
+      <c r="AS16" s="344"/>
+      <c r="AT16" s="344"/>
+      <c r="AU16" s="344"/>
+      <c r="AV16" s="344"/>
       <c r="AW16" s="6"/>
     </row>
     <row r="17" spans="1:49" ht="13.5" customHeight="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="338"/>
-      <c r="C17" s="338"/>
-      <c r="D17" s="338"/>
-      <c r="E17" s="338"/>
-      <c r="F17" s="338"/>
-      <c r="G17" s="338"/>
-      <c r="H17" s="338"/>
-      <c r="I17" s="338"/>
-      <c r="J17" s="338"/>
-      <c r="K17" s="338"/>
-      <c r="L17" s="338"/>
-      <c r="M17" s="338"/>
-      <c r="N17" s="338"/>
-      <c r="O17" s="338"/>
-      <c r="P17" s="338"/>
-      <c r="Q17" s="338"/>
-      <c r="R17" s="338"/>
-      <c r="S17" s="338"/>
-      <c r="T17" s="338"/>
-      <c r="U17" s="338"/>
-      <c r="V17" s="338"/>
-      <c r="W17" s="338"/>
-      <c r="X17" s="338"/>
-      <c r="Y17" s="338"/>
-      <c r="Z17" s="338"/>
-      <c r="AA17" s="338"/>
-      <c r="AB17" s="338"/>
-      <c r="AC17" s="338"/>
-      <c r="AD17" s="338"/>
-      <c r="AE17" s="338"/>
-      <c r="AF17" s="338"/>
-      <c r="AG17" s="338"/>
-      <c r="AH17" s="338"/>
-      <c r="AI17" s="338"/>
-      <c r="AJ17" s="338"/>
-      <c r="AK17" s="338"/>
-      <c r="AL17" s="338"/>
-      <c r="AM17" s="338"/>
-      <c r="AN17" s="338"/>
-      <c r="AO17" s="338"/>
-      <c r="AP17" s="338"/>
-      <c r="AQ17" s="338"/>
-      <c r="AR17" s="338"/>
-      <c r="AS17" s="338"/>
-      <c r="AT17" s="338"/>
-      <c r="AU17" s="338"/>
-      <c r="AV17" s="338"/>
+      <c r="B17" s="344"/>
+      <c r="C17" s="344"/>
+      <c r="D17" s="344"/>
+      <c r="E17" s="344"/>
+      <c r="F17" s="344"/>
+      <c r="G17" s="344"/>
+      <c r="H17" s="344"/>
+      <c r="I17" s="344"/>
+      <c r="J17" s="344"/>
+      <c r="K17" s="344"/>
+      <c r="L17" s="344"/>
+      <c r="M17" s="344"/>
+      <c r="N17" s="344"/>
+      <c r="O17" s="344"/>
+      <c r="P17" s="344"/>
+      <c r="Q17" s="344"/>
+      <c r="R17" s="344"/>
+      <c r="S17" s="344"/>
+      <c r="T17" s="344"/>
+      <c r="U17" s="344"/>
+      <c r="V17" s="344"/>
+      <c r="W17" s="344"/>
+      <c r="X17" s="344"/>
+      <c r="Y17" s="344"/>
+      <c r="Z17" s="344"/>
+      <c r="AA17" s="344"/>
+      <c r="AB17" s="344"/>
+      <c r="AC17" s="344"/>
+      <c r="AD17" s="344"/>
+      <c r="AE17" s="344"/>
+      <c r="AF17" s="344"/>
+      <c r="AG17" s="344"/>
+      <c r="AH17" s="344"/>
+      <c r="AI17" s="344"/>
+      <c r="AJ17" s="344"/>
+      <c r="AK17" s="344"/>
+      <c r="AL17" s="344"/>
+      <c r="AM17" s="344"/>
+      <c r="AN17" s="344"/>
+      <c r="AO17" s="344"/>
+      <c r="AP17" s="344"/>
+      <c r="AQ17" s="344"/>
+      <c r="AR17" s="344"/>
+      <c r="AS17" s="344"/>
+      <c r="AT17" s="344"/>
+      <c r="AU17" s="344"/>
+      <c r="AV17" s="344"/>
       <c r="AW17" s="6"/>
     </row>
     <row r="18" spans="1:49" ht="13.5" customHeight="1">
@@ -5726,208 +5729,208 @@
     </row>
     <row r="23" spans="1:49" ht="13.5" customHeight="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="339" t="s">
+      <c r="B23" s="345" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="339"/>
-      <c r="D23" s="339"/>
-      <c r="E23" s="339"/>
-      <c r="F23" s="339"/>
-      <c r="G23" s="339"/>
-      <c r="H23" s="339"/>
-      <c r="I23" s="339"/>
-      <c r="J23" s="339"/>
-      <c r="K23" s="339"/>
-      <c r="L23" s="339"/>
-      <c r="M23" s="339"/>
-      <c r="N23" s="339"/>
-      <c r="O23" s="339"/>
-      <c r="P23" s="339"/>
-      <c r="Q23" s="339"/>
-      <c r="R23" s="339"/>
-      <c r="S23" s="339"/>
-      <c r="T23" s="339"/>
-      <c r="U23" s="339"/>
-      <c r="V23" s="339"/>
-      <c r="W23" s="339"/>
-      <c r="X23" s="339"/>
-      <c r="Y23" s="339"/>
-      <c r="Z23" s="339"/>
-      <c r="AA23" s="339"/>
-      <c r="AB23" s="339"/>
-      <c r="AC23" s="339"/>
-      <c r="AD23" s="339"/>
-      <c r="AE23" s="339"/>
-      <c r="AF23" s="339"/>
-      <c r="AG23" s="339"/>
-      <c r="AH23" s="339"/>
-      <c r="AI23" s="339"/>
-      <c r="AJ23" s="339"/>
-      <c r="AK23" s="339"/>
-      <c r="AL23" s="339"/>
-      <c r="AM23" s="339"/>
-      <c r="AN23" s="339"/>
-      <c r="AO23" s="339"/>
-      <c r="AP23" s="339"/>
-      <c r="AQ23" s="339"/>
-      <c r="AR23" s="339"/>
-      <c r="AS23" s="339"/>
-      <c r="AT23" s="339"/>
-      <c r="AU23" s="339"/>
-      <c r="AV23" s="339"/>
+      <c r="C23" s="345"/>
+      <c r="D23" s="345"/>
+      <c r="E23" s="345"/>
+      <c r="F23" s="345"/>
+      <c r="G23" s="345"/>
+      <c r="H23" s="345"/>
+      <c r="I23" s="345"/>
+      <c r="J23" s="345"/>
+      <c r="K23" s="345"/>
+      <c r="L23" s="345"/>
+      <c r="M23" s="345"/>
+      <c r="N23" s="345"/>
+      <c r="O23" s="345"/>
+      <c r="P23" s="345"/>
+      <c r="Q23" s="345"/>
+      <c r="R23" s="345"/>
+      <c r="S23" s="345"/>
+      <c r="T23" s="345"/>
+      <c r="U23" s="345"/>
+      <c r="V23" s="345"/>
+      <c r="W23" s="345"/>
+      <c r="X23" s="345"/>
+      <c r="Y23" s="345"/>
+      <c r="Z23" s="345"/>
+      <c r="AA23" s="345"/>
+      <c r="AB23" s="345"/>
+      <c r="AC23" s="345"/>
+      <c r="AD23" s="345"/>
+      <c r="AE23" s="345"/>
+      <c r="AF23" s="345"/>
+      <c r="AG23" s="345"/>
+      <c r="AH23" s="345"/>
+      <c r="AI23" s="345"/>
+      <c r="AJ23" s="345"/>
+      <c r="AK23" s="345"/>
+      <c r="AL23" s="345"/>
+      <c r="AM23" s="345"/>
+      <c r="AN23" s="345"/>
+      <c r="AO23" s="345"/>
+      <c r="AP23" s="345"/>
+      <c r="AQ23" s="345"/>
+      <c r="AR23" s="345"/>
+      <c r="AS23" s="345"/>
+      <c r="AT23" s="345"/>
+      <c r="AU23" s="345"/>
+      <c r="AV23" s="345"/>
       <c r="AW23" s="6"/>
     </row>
     <row r="24" spans="1:49" ht="13.5" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="339"/>
-      <c r="C24" s="339"/>
-      <c r="D24" s="339"/>
-      <c r="E24" s="339"/>
-      <c r="F24" s="339"/>
-      <c r="G24" s="339"/>
-      <c r="H24" s="339"/>
-      <c r="I24" s="339"/>
-      <c r="J24" s="339"/>
-      <c r="K24" s="339"/>
-      <c r="L24" s="339"/>
-      <c r="M24" s="339"/>
-      <c r="N24" s="339"/>
-      <c r="O24" s="339"/>
-      <c r="P24" s="339"/>
-      <c r="Q24" s="339"/>
-      <c r="R24" s="339"/>
-      <c r="S24" s="339"/>
-      <c r="T24" s="339"/>
-      <c r="U24" s="339"/>
-      <c r="V24" s="339"/>
-      <c r="W24" s="339"/>
-      <c r="X24" s="339"/>
-      <c r="Y24" s="339"/>
-      <c r="Z24" s="339"/>
-      <c r="AA24" s="339"/>
-      <c r="AB24" s="339"/>
-      <c r="AC24" s="339"/>
-      <c r="AD24" s="339"/>
-      <c r="AE24" s="339"/>
-      <c r="AF24" s="339"/>
-      <c r="AG24" s="339"/>
-      <c r="AH24" s="339"/>
-      <c r="AI24" s="339"/>
-      <c r="AJ24" s="339"/>
-      <c r="AK24" s="339"/>
-      <c r="AL24" s="339"/>
-      <c r="AM24" s="339"/>
-      <c r="AN24" s="339"/>
-      <c r="AO24" s="339"/>
-      <c r="AP24" s="339"/>
-      <c r="AQ24" s="339"/>
-      <c r="AR24" s="339"/>
-      <c r="AS24" s="339"/>
-      <c r="AT24" s="339"/>
-      <c r="AU24" s="339"/>
-      <c r="AV24" s="339"/>
+      <c r="B24" s="345"/>
+      <c r="C24" s="345"/>
+      <c r="D24" s="345"/>
+      <c r="E24" s="345"/>
+      <c r="F24" s="345"/>
+      <c r="G24" s="345"/>
+      <c r="H24" s="345"/>
+      <c r="I24" s="345"/>
+      <c r="J24" s="345"/>
+      <c r="K24" s="345"/>
+      <c r="L24" s="345"/>
+      <c r="M24" s="345"/>
+      <c r="N24" s="345"/>
+      <c r="O24" s="345"/>
+      <c r="P24" s="345"/>
+      <c r="Q24" s="345"/>
+      <c r="R24" s="345"/>
+      <c r="S24" s="345"/>
+      <c r="T24" s="345"/>
+      <c r="U24" s="345"/>
+      <c r="V24" s="345"/>
+      <c r="W24" s="345"/>
+      <c r="X24" s="345"/>
+      <c r="Y24" s="345"/>
+      <c r="Z24" s="345"/>
+      <c r="AA24" s="345"/>
+      <c r="AB24" s="345"/>
+      <c r="AC24" s="345"/>
+      <c r="AD24" s="345"/>
+      <c r="AE24" s="345"/>
+      <c r="AF24" s="345"/>
+      <c r="AG24" s="345"/>
+      <c r="AH24" s="345"/>
+      <c r="AI24" s="345"/>
+      <c r="AJ24" s="345"/>
+      <c r="AK24" s="345"/>
+      <c r="AL24" s="345"/>
+      <c r="AM24" s="345"/>
+      <c r="AN24" s="345"/>
+      <c r="AO24" s="345"/>
+      <c r="AP24" s="345"/>
+      <c r="AQ24" s="345"/>
+      <c r="AR24" s="345"/>
+      <c r="AS24" s="345"/>
+      <c r="AT24" s="345"/>
+      <c r="AU24" s="345"/>
+      <c r="AV24" s="345"/>
       <c r="AW24" s="6"/>
     </row>
     <row r="25" spans="1:49" ht="13.5" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="339"/>
-      <c r="C25" s="339"/>
-      <c r="D25" s="339"/>
-      <c r="E25" s="339"/>
-      <c r="F25" s="339"/>
-      <c r="G25" s="339"/>
-      <c r="H25" s="339"/>
-      <c r="I25" s="339"/>
-      <c r="J25" s="339"/>
-      <c r="K25" s="339"/>
-      <c r="L25" s="339"/>
-      <c r="M25" s="339"/>
-      <c r="N25" s="339"/>
-      <c r="O25" s="339"/>
-      <c r="P25" s="339"/>
-      <c r="Q25" s="339"/>
-      <c r="R25" s="339"/>
-      <c r="S25" s="339"/>
-      <c r="T25" s="339"/>
-      <c r="U25" s="339"/>
-      <c r="V25" s="339"/>
-      <c r="W25" s="339"/>
-      <c r="X25" s="339"/>
-      <c r="Y25" s="339"/>
-      <c r="Z25" s="339"/>
-      <c r="AA25" s="339"/>
-      <c r="AB25" s="339"/>
-      <c r="AC25" s="339"/>
-      <c r="AD25" s="339"/>
-      <c r="AE25" s="339"/>
-      <c r="AF25" s="339"/>
-      <c r="AG25" s="339"/>
-      <c r="AH25" s="339"/>
-      <c r="AI25" s="339"/>
-      <c r="AJ25" s="339"/>
-      <c r="AK25" s="339"/>
-      <c r="AL25" s="339"/>
-      <c r="AM25" s="339"/>
-      <c r="AN25" s="339"/>
-      <c r="AO25" s="339"/>
-      <c r="AP25" s="339"/>
-      <c r="AQ25" s="339"/>
-      <c r="AR25" s="339"/>
-      <c r="AS25" s="339"/>
-      <c r="AT25" s="339"/>
-      <c r="AU25" s="339"/>
-      <c r="AV25" s="339"/>
+      <c r="B25" s="345"/>
+      <c r="C25" s="345"/>
+      <c r="D25" s="345"/>
+      <c r="E25" s="345"/>
+      <c r="F25" s="345"/>
+      <c r="G25" s="345"/>
+      <c r="H25" s="345"/>
+      <c r="I25" s="345"/>
+      <c r="J25" s="345"/>
+      <c r="K25" s="345"/>
+      <c r="L25" s="345"/>
+      <c r="M25" s="345"/>
+      <c r="N25" s="345"/>
+      <c r="O25" s="345"/>
+      <c r="P25" s="345"/>
+      <c r="Q25" s="345"/>
+      <c r="R25" s="345"/>
+      <c r="S25" s="345"/>
+      <c r="T25" s="345"/>
+      <c r="U25" s="345"/>
+      <c r="V25" s="345"/>
+      <c r="W25" s="345"/>
+      <c r="X25" s="345"/>
+      <c r="Y25" s="345"/>
+      <c r="Z25" s="345"/>
+      <c r="AA25" s="345"/>
+      <c r="AB25" s="345"/>
+      <c r="AC25" s="345"/>
+      <c r="AD25" s="345"/>
+      <c r="AE25" s="345"/>
+      <c r="AF25" s="345"/>
+      <c r="AG25" s="345"/>
+      <c r="AH25" s="345"/>
+      <c r="AI25" s="345"/>
+      <c r="AJ25" s="345"/>
+      <c r="AK25" s="345"/>
+      <c r="AL25" s="345"/>
+      <c r="AM25" s="345"/>
+      <c r="AN25" s="345"/>
+      <c r="AO25" s="345"/>
+      <c r="AP25" s="345"/>
+      <c r="AQ25" s="345"/>
+      <c r="AR25" s="345"/>
+      <c r="AS25" s="345"/>
+      <c r="AT25" s="345"/>
+      <c r="AU25" s="345"/>
+      <c r="AV25" s="345"/>
       <c r="AW25" s="6"/>
     </row>
     <row r="26" spans="1:49" ht="13.5" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="339"/>
-      <c r="C26" s="339"/>
-      <c r="D26" s="339"/>
-      <c r="E26" s="339"/>
-      <c r="F26" s="339"/>
-      <c r="G26" s="339"/>
-      <c r="H26" s="339"/>
-      <c r="I26" s="339"/>
-      <c r="J26" s="339"/>
-      <c r="K26" s="339"/>
-      <c r="L26" s="339"/>
-      <c r="M26" s="339"/>
-      <c r="N26" s="339"/>
-      <c r="O26" s="339"/>
-      <c r="P26" s="339"/>
-      <c r="Q26" s="339"/>
-      <c r="R26" s="339"/>
-      <c r="S26" s="339"/>
-      <c r="T26" s="339"/>
-      <c r="U26" s="339"/>
-      <c r="V26" s="339"/>
-      <c r="W26" s="339"/>
-      <c r="X26" s="339"/>
-      <c r="Y26" s="339"/>
-      <c r="Z26" s="339"/>
-      <c r="AA26" s="339"/>
-      <c r="AB26" s="339"/>
-      <c r="AC26" s="339"/>
-      <c r="AD26" s="339"/>
-      <c r="AE26" s="339"/>
-      <c r="AF26" s="339"/>
-      <c r="AG26" s="339"/>
-      <c r="AH26" s="339"/>
-      <c r="AI26" s="339"/>
-      <c r="AJ26" s="339"/>
-      <c r="AK26" s="339"/>
-      <c r="AL26" s="339"/>
-      <c r="AM26" s="339"/>
-      <c r="AN26" s="339"/>
-      <c r="AO26" s="339"/>
-      <c r="AP26" s="339"/>
-      <c r="AQ26" s="339"/>
-      <c r="AR26" s="339"/>
-      <c r="AS26" s="339"/>
-      <c r="AT26" s="339"/>
-      <c r="AU26" s="339"/>
-      <c r="AV26" s="339"/>
+      <c r="B26" s="345"/>
+      <c r="C26" s="345"/>
+      <c r="D26" s="345"/>
+      <c r="E26" s="345"/>
+      <c r="F26" s="345"/>
+      <c r="G26" s="345"/>
+      <c r="H26" s="345"/>
+      <c r="I26" s="345"/>
+      <c r="J26" s="345"/>
+      <c r="K26" s="345"/>
+      <c r="L26" s="345"/>
+      <c r="M26" s="345"/>
+      <c r="N26" s="345"/>
+      <c r="O26" s="345"/>
+      <c r="P26" s="345"/>
+      <c r="Q26" s="345"/>
+      <c r="R26" s="345"/>
+      <c r="S26" s="345"/>
+      <c r="T26" s="345"/>
+      <c r="U26" s="345"/>
+      <c r="V26" s="345"/>
+      <c r="W26" s="345"/>
+      <c r="X26" s="345"/>
+      <c r="Y26" s="345"/>
+      <c r="Z26" s="345"/>
+      <c r="AA26" s="345"/>
+      <c r="AB26" s="345"/>
+      <c r="AC26" s="345"/>
+      <c r="AD26" s="345"/>
+      <c r="AE26" s="345"/>
+      <c r="AF26" s="345"/>
+      <c r="AG26" s="345"/>
+      <c r="AH26" s="345"/>
+      <c r="AI26" s="345"/>
+      <c r="AJ26" s="345"/>
+      <c r="AK26" s="345"/>
+      <c r="AL26" s="345"/>
+      <c r="AM26" s="345"/>
+      <c r="AN26" s="345"/>
+      <c r="AO26" s="345"/>
+      <c r="AP26" s="345"/>
+      <c r="AQ26" s="345"/>
+      <c r="AR26" s="345"/>
+      <c r="AS26" s="345"/>
+      <c r="AT26" s="345"/>
+      <c r="AU26" s="345"/>
+      <c r="AV26" s="345"/>
       <c r="AW26" s="6"/>
     </row>
     <row r="27" spans="1:49" ht="13.5" customHeight="1">
@@ -6738,120 +6741,120 @@
     </row>
     <row r="47" spans="1:49" ht="13.5" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="319" t="s">
+      <c r="B47" s="325" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="320"/>
-      <c r="D47" s="323" t="s">
+      <c r="C47" s="326"/>
+      <c r="D47" s="329" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="324"/>
-      <c r="F47" s="324"/>
-      <c r="G47" s="324"/>
-      <c r="H47" s="325"/>
-      <c r="I47" s="319" t="s">
+      <c r="E47" s="330"/>
+      <c r="F47" s="330"/>
+      <c r="G47" s="330"/>
+      <c r="H47" s="331"/>
+      <c r="I47" s="325" t="s">
         <v>23</v>
       </c>
-      <c r="J47" s="320"/>
-      <c r="K47" s="320"/>
-      <c r="L47" s="320"/>
-      <c r="M47" s="320"/>
-      <c r="N47" s="320"/>
-      <c r="O47" s="320"/>
-      <c r="P47" s="320"/>
-      <c r="Q47" s="320"/>
-      <c r="R47" s="320"/>
-      <c r="S47" s="320"/>
-      <c r="T47" s="320"/>
-      <c r="U47" s="320"/>
-      <c r="V47" s="320"/>
-      <c r="W47" s="320"/>
-      <c r="X47" s="320"/>
-      <c r="Y47" s="320"/>
-      <c r="Z47" s="329"/>
-      <c r="AA47" s="323" t="s">
+      <c r="J47" s="326"/>
+      <c r="K47" s="326"/>
+      <c r="L47" s="326"/>
+      <c r="M47" s="326"/>
+      <c r="N47" s="326"/>
+      <c r="O47" s="326"/>
+      <c r="P47" s="326"/>
+      <c r="Q47" s="326"/>
+      <c r="R47" s="326"/>
+      <c r="S47" s="326"/>
+      <c r="T47" s="326"/>
+      <c r="U47" s="326"/>
+      <c r="V47" s="326"/>
+      <c r="W47" s="326"/>
+      <c r="X47" s="326"/>
+      <c r="Y47" s="326"/>
+      <c r="Z47" s="335"/>
+      <c r="AA47" s="329" t="s">
         <v>6</v>
       </c>
-      <c r="AB47" s="324"/>
-      <c r="AC47" s="324"/>
-      <c r="AD47" s="325"/>
-      <c r="AE47" s="331"/>
-      <c r="AF47" s="332"/>
-      <c r="AG47" s="332"/>
-      <c r="AH47" s="332"/>
-      <c r="AI47" s="332"/>
-      <c r="AJ47" s="332"/>
-      <c r="AK47" s="332"/>
-      <c r="AL47" s="332"/>
-      <c r="AM47" s="333"/>
-      <c r="AN47" s="334"/>
-      <c r="AO47" s="335"/>
-      <c r="AP47" s="335"/>
-      <c r="AQ47" s="335"/>
-      <c r="AR47" s="335"/>
-      <c r="AS47" s="335"/>
-      <c r="AT47" s="335"/>
-      <c r="AU47" s="335"/>
-      <c r="AV47" s="336"/>
+      <c r="AB47" s="330"/>
+      <c r="AC47" s="330"/>
+      <c r="AD47" s="331"/>
+      <c r="AE47" s="337"/>
+      <c r="AF47" s="338"/>
+      <c r="AG47" s="338"/>
+      <c r="AH47" s="338"/>
+      <c r="AI47" s="338"/>
+      <c r="AJ47" s="338"/>
+      <c r="AK47" s="338"/>
+      <c r="AL47" s="338"/>
+      <c r="AM47" s="339"/>
+      <c r="AN47" s="340"/>
+      <c r="AO47" s="341"/>
+      <c r="AP47" s="341"/>
+      <c r="AQ47" s="341"/>
+      <c r="AR47" s="341"/>
+      <c r="AS47" s="341"/>
+      <c r="AT47" s="341"/>
+      <c r="AU47" s="341"/>
+      <c r="AV47" s="342"/>
       <c r="AW47" s="6"/>
     </row>
     <row r="48" spans="1:49" ht="13.5" customHeight="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="321"/>
-      <c r="C48" s="322"/>
-      <c r="D48" s="326"/>
-      <c r="E48" s="327"/>
-      <c r="F48" s="327"/>
-      <c r="G48" s="327"/>
-      <c r="H48" s="328"/>
-      <c r="I48" s="321"/>
-      <c r="J48" s="322"/>
-      <c r="K48" s="322"/>
-      <c r="L48" s="322"/>
-      <c r="M48" s="322"/>
-      <c r="N48" s="322"/>
-      <c r="O48" s="322"/>
-      <c r="P48" s="322"/>
-      <c r="Q48" s="322"/>
-      <c r="R48" s="322"/>
-      <c r="S48" s="322"/>
-      <c r="T48" s="322"/>
-      <c r="U48" s="322"/>
-      <c r="V48" s="322"/>
-      <c r="W48" s="322"/>
-      <c r="X48" s="322"/>
-      <c r="Y48" s="322"/>
-      <c r="Z48" s="330"/>
-      <c r="AA48" s="326"/>
-      <c r="AB48" s="327"/>
-      <c r="AC48" s="327"/>
-      <c r="AD48" s="328"/>
-      <c r="AE48" s="331" t="s">
+      <c r="B48" s="327"/>
+      <c r="C48" s="328"/>
+      <c r="D48" s="332"/>
+      <c r="E48" s="333"/>
+      <c r="F48" s="333"/>
+      <c r="G48" s="333"/>
+      <c r="H48" s="334"/>
+      <c r="I48" s="327"/>
+      <c r="J48" s="328"/>
+      <c r="K48" s="328"/>
+      <c r="L48" s="328"/>
+      <c r="M48" s="328"/>
+      <c r="N48" s="328"/>
+      <c r="O48" s="328"/>
+      <c r="P48" s="328"/>
+      <c r="Q48" s="328"/>
+      <c r="R48" s="328"/>
+      <c r="S48" s="328"/>
+      <c r="T48" s="328"/>
+      <c r="U48" s="328"/>
+      <c r="V48" s="328"/>
+      <c r="W48" s="328"/>
+      <c r="X48" s="328"/>
+      <c r="Y48" s="328"/>
+      <c r="Z48" s="336"/>
+      <c r="AA48" s="332"/>
+      <c r="AB48" s="333"/>
+      <c r="AC48" s="333"/>
+      <c r="AD48" s="334"/>
+      <c r="AE48" s="337" t="s">
         <v>24</v>
       </c>
-      <c r="AF48" s="332"/>
-      <c r="AG48" s="332"/>
-      <c r="AH48" s="332"/>
-      <c r="AI48" s="333"/>
-      <c r="AJ48" s="331" t="s">
+      <c r="AF48" s="338"/>
+      <c r="AG48" s="338"/>
+      <c r="AH48" s="338"/>
+      <c r="AI48" s="339"/>
+      <c r="AJ48" s="337" t="s">
         <v>25</v>
       </c>
-      <c r="AK48" s="332"/>
-      <c r="AL48" s="332"/>
-      <c r="AM48" s="333"/>
-      <c r="AN48" s="331" t="s">
+      <c r="AK48" s="338"/>
+      <c r="AL48" s="338"/>
+      <c r="AM48" s="339"/>
+      <c r="AN48" s="337" t="s">
         <v>24</v>
       </c>
-      <c r="AO48" s="332"/>
-      <c r="AP48" s="332"/>
-      <c r="AQ48" s="332"/>
-      <c r="AR48" s="333"/>
-      <c r="AS48" s="331" t="s">
+      <c r="AO48" s="338"/>
+      <c r="AP48" s="338"/>
+      <c r="AQ48" s="338"/>
+      <c r="AR48" s="339"/>
+      <c r="AS48" s="337" t="s">
         <v>25</v>
       </c>
-      <c r="AT48" s="332"/>
-      <c r="AU48" s="332"/>
-      <c r="AV48" s="333"/>
+      <c r="AT48" s="338"/>
+      <c r="AU48" s="338"/>
+      <c r="AV48" s="339"/>
       <c r="AW48" s="6"/>
     </row>
     <row r="49" spans="1:49" ht="13.5" customHeight="1">
@@ -6867,26 +6870,26 @@
       <c r="F49" s="287"/>
       <c r="G49" s="287"/>
       <c r="H49" s="288"/>
-      <c r="I49" s="417" t="s">
-        <v>142</v>
-      </c>
-      <c r="J49" s="418"/>
-      <c r="K49" s="418"/>
-      <c r="L49" s="418"/>
-      <c r="M49" s="418"/>
-      <c r="N49" s="418"/>
-      <c r="O49" s="418"/>
-      <c r="P49" s="418"/>
-      <c r="Q49" s="418"/>
-      <c r="R49" s="418"/>
-      <c r="S49" s="418"/>
-      <c r="T49" s="418"/>
-      <c r="U49" s="418"/>
-      <c r="V49" s="418"/>
-      <c r="W49" s="418"/>
-      <c r="X49" s="418"/>
-      <c r="Y49" s="418"/>
-      <c r="Z49" s="419"/>
+      <c r="I49" s="319" t="s">
+        <v>139</v>
+      </c>
+      <c r="J49" s="320"/>
+      <c r="K49" s="320"/>
+      <c r="L49" s="320"/>
+      <c r="M49" s="320"/>
+      <c r="N49" s="320"/>
+      <c r="O49" s="320"/>
+      <c r="P49" s="320"/>
+      <c r="Q49" s="320"/>
+      <c r="R49" s="320"/>
+      <c r="S49" s="320"/>
+      <c r="T49" s="320"/>
+      <c r="U49" s="320"/>
+      <c r="V49" s="320"/>
+      <c r="W49" s="320"/>
+      <c r="X49" s="320"/>
+      <c r="Y49" s="320"/>
+      <c r="Z49" s="321"/>
       <c r="AA49" s="292" t="s">
         <v>88</v>
       </c>
@@ -6922,24 +6925,24 @@
       <c r="F50" s="290"/>
       <c r="G50" s="290"/>
       <c r="H50" s="291"/>
-      <c r="I50" s="420"/>
-      <c r="J50" s="421"/>
-      <c r="K50" s="421"/>
-      <c r="L50" s="421"/>
-      <c r="M50" s="421"/>
-      <c r="N50" s="421"/>
-      <c r="O50" s="421"/>
-      <c r="P50" s="421"/>
-      <c r="Q50" s="421"/>
-      <c r="R50" s="421"/>
-      <c r="S50" s="421"/>
-      <c r="T50" s="421"/>
-      <c r="U50" s="421"/>
-      <c r="V50" s="421"/>
-      <c r="W50" s="421"/>
-      <c r="X50" s="421"/>
-      <c r="Y50" s="421"/>
-      <c r="Z50" s="422"/>
+      <c r="I50" s="322"/>
+      <c r="J50" s="323"/>
+      <c r="K50" s="323"/>
+      <c r="L50" s="323"/>
+      <c r="M50" s="323"/>
+      <c r="N50" s="323"/>
+      <c r="O50" s="323"/>
+      <c r="P50" s="323"/>
+      <c r="Q50" s="323"/>
+      <c r="R50" s="323"/>
+      <c r="S50" s="323"/>
+      <c r="T50" s="323"/>
+      <c r="U50" s="323"/>
+      <c r="V50" s="323"/>
+      <c r="W50" s="323"/>
+      <c r="X50" s="323"/>
+      <c r="Y50" s="323"/>
+      <c r="Z50" s="324"/>
       <c r="AA50" s="295"/>
       <c r="AB50" s="296"/>
       <c r="AC50" s="296"/>
@@ -14069,11 +14072,11 @@
       <c r="K47" s="74"/>
       <c r="L47" s="74"/>
       <c r="M47" s="74"/>
-      <c r="N47" s="346">
+      <c r="N47" s="352">
         <v>50</v>
       </c>
-      <c r="O47" s="347"/>
-      <c r="P47" s="348"/>
+      <c r="O47" s="353"/>
+      <c r="P47" s="354"/>
       <c r="Q47" s="122"/>
       <c r="R47" s="74" t="s">
         <v>68</v>
@@ -14135,11 +14138,11 @@
       <c r="K48" s="80"/>
       <c r="L48" s="80"/>
       <c r="M48" s="80"/>
-      <c r="N48" s="349">
+      <c r="N48" s="355">
         <v>20</v>
       </c>
-      <c r="O48" s="350"/>
-      <c r="P48" s="351"/>
+      <c r="O48" s="356"/>
+      <c r="P48" s="357"/>
       <c r="Q48" s="126"/>
       <c r="R48" s="80" t="s">
         <v>68</v>
@@ -14201,11 +14204,11 @@
       <c r="K49" s="80"/>
       <c r="L49" s="80"/>
       <c r="M49" s="80"/>
-      <c r="N49" s="349">
+      <c r="N49" s="355">
         <v>11</v>
       </c>
-      <c r="O49" s="350"/>
-      <c r="P49" s="351"/>
+      <c r="O49" s="356"/>
+      <c r="P49" s="357"/>
       <c r="Q49" s="126"/>
       <c r="R49" s="80" t="s">
         <v>68</v>
@@ -14267,11 +14270,11 @@
       <c r="K50" s="133"/>
       <c r="L50" s="133"/>
       <c r="M50" s="133"/>
-      <c r="N50" s="352">
+      <c r="N50" s="358">
         <v>100</v>
       </c>
-      <c r="O50" s="353"/>
-      <c r="P50" s="354"/>
+      <c r="O50" s="359"/>
+      <c r="P50" s="360"/>
       <c r="Q50" s="135"/>
       <c r="R50" s="133" t="s">
         <v>68</v>
@@ -14517,57 +14520,57 @@
       <c r="C65" s="183">
         <v>1</v>
       </c>
-      <c r="D65" s="355" t="s">
+      <c r="D65" s="361" t="s">
         <v>98</v>
       </c>
-      <c r="E65" s="356"/>
-      <c r="F65" s="356"/>
-      <c r="G65" s="356"/>
-      <c r="H65" s="356"/>
-      <c r="I65" s="356"/>
-      <c r="J65" s="356"/>
-      <c r="K65" s="356"/>
-      <c r="L65" s="356"/>
-      <c r="M65" s="357"/>
-      <c r="N65" s="355" t="s">
+      <c r="E65" s="362"/>
+      <c r="F65" s="362"/>
+      <c r="G65" s="362"/>
+      <c r="H65" s="362"/>
+      <c r="I65" s="362"/>
+      <c r="J65" s="362"/>
+      <c r="K65" s="362"/>
+      <c r="L65" s="362"/>
+      <c r="M65" s="363"/>
+      <c r="N65" s="361" t="s">
         <v>70</v>
       </c>
-      <c r="O65" s="356"/>
-      <c r="P65" s="356"/>
-      <c r="Q65" s="356"/>
-      <c r="R65" s="356"/>
-      <c r="S65" s="356"/>
-      <c r="T65" s="356"/>
-      <c r="U65" s="356"/>
-      <c r="V65" s="356"/>
-      <c r="W65" s="357"/>
-      <c r="X65" s="358" t="s">
+      <c r="O65" s="362"/>
+      <c r="P65" s="362"/>
+      <c r="Q65" s="362"/>
+      <c r="R65" s="362"/>
+      <c r="S65" s="362"/>
+      <c r="T65" s="362"/>
+      <c r="U65" s="362"/>
+      <c r="V65" s="362"/>
+      <c r="W65" s="363"/>
+      <c r="X65" s="364" t="s">
         <v>111</v>
       </c>
-      <c r="Y65" s="359"/>
-      <c r="Z65" s="359"/>
-      <c r="AA65" s="359"/>
-      <c r="AB65" s="359"/>
-      <c r="AC65" s="359"/>
-      <c r="AD65" s="359"/>
-      <c r="AE65" s="359"/>
-      <c r="AF65" s="359"/>
-      <c r="AG65" s="359"/>
-      <c r="AH65" s="359"/>
-      <c r="AI65" s="359"/>
-      <c r="AJ65" s="359"/>
-      <c r="AK65" s="359"/>
-      <c r="AL65" s="359"/>
-      <c r="AM65" s="359"/>
-      <c r="AN65" s="359"/>
-      <c r="AO65" s="359"/>
-      <c r="AP65" s="359"/>
-      <c r="AQ65" s="359"/>
-      <c r="AR65" s="359"/>
-      <c r="AS65" s="359"/>
-      <c r="AT65" s="359"/>
-      <c r="AU65" s="359"/>
-      <c r="AV65" s="360"/>
+      <c r="Y65" s="365"/>
+      <c r="Z65" s="365"/>
+      <c r="AA65" s="365"/>
+      <c r="AB65" s="365"/>
+      <c r="AC65" s="365"/>
+      <c r="AD65" s="365"/>
+      <c r="AE65" s="365"/>
+      <c r="AF65" s="365"/>
+      <c r="AG65" s="365"/>
+      <c r="AH65" s="365"/>
+      <c r="AI65" s="365"/>
+      <c r="AJ65" s="365"/>
+      <c r="AK65" s="365"/>
+      <c r="AL65" s="365"/>
+      <c r="AM65" s="365"/>
+      <c r="AN65" s="365"/>
+      <c r="AO65" s="365"/>
+      <c r="AP65" s="365"/>
+      <c r="AQ65" s="365"/>
+      <c r="AR65" s="365"/>
+      <c r="AS65" s="365"/>
+      <c r="AT65" s="365"/>
+      <c r="AU65" s="365"/>
+      <c r="AV65" s="366"/>
       <c r="AW65" s="6"/>
     </row>
     <row r="66" spans="1:49" ht="13.5" customHeight="1">
@@ -14576,57 +14579,57 @@
       <c r="C66" s="94">
         <v>2</v>
       </c>
-      <c r="D66" s="361" t="s">
+      <c r="D66" s="367" t="s">
         <v>109</v>
       </c>
-      <c r="E66" s="362"/>
-      <c r="F66" s="362"/>
-      <c r="G66" s="362"/>
-      <c r="H66" s="362"/>
-      <c r="I66" s="362"/>
-      <c r="J66" s="362"/>
-      <c r="K66" s="362"/>
-      <c r="L66" s="362"/>
-      <c r="M66" s="363"/>
-      <c r="N66" s="361" t="s">
+      <c r="E66" s="368"/>
+      <c r="F66" s="368"/>
+      <c r="G66" s="368"/>
+      <c r="H66" s="368"/>
+      <c r="I66" s="368"/>
+      <c r="J66" s="368"/>
+      <c r="K66" s="368"/>
+      <c r="L66" s="368"/>
+      <c r="M66" s="369"/>
+      <c r="N66" s="367" t="s">
         <v>71</v>
       </c>
-      <c r="O66" s="362"/>
-      <c r="P66" s="362"/>
-      <c r="Q66" s="362"/>
-      <c r="R66" s="362"/>
-      <c r="S66" s="362"/>
-      <c r="T66" s="362"/>
-      <c r="U66" s="362"/>
-      <c r="V66" s="362"/>
-      <c r="W66" s="363"/>
-      <c r="X66" s="361" t="s">
+      <c r="O66" s="368"/>
+      <c r="P66" s="368"/>
+      <c r="Q66" s="368"/>
+      <c r="R66" s="368"/>
+      <c r="S66" s="368"/>
+      <c r="T66" s="368"/>
+      <c r="U66" s="368"/>
+      <c r="V66" s="368"/>
+      <c r="W66" s="369"/>
+      <c r="X66" s="367" t="s">
         <v>110</v>
       </c>
-      <c r="Y66" s="362"/>
-      <c r="Z66" s="362"/>
-      <c r="AA66" s="362"/>
-      <c r="AB66" s="362"/>
-      <c r="AC66" s="362"/>
-      <c r="AD66" s="362"/>
-      <c r="AE66" s="362"/>
-      <c r="AF66" s="362"/>
-      <c r="AG66" s="362"/>
-      <c r="AH66" s="362"/>
-      <c r="AI66" s="362"/>
-      <c r="AJ66" s="362"/>
-      <c r="AK66" s="362"/>
-      <c r="AL66" s="362"/>
-      <c r="AM66" s="362"/>
-      <c r="AN66" s="362"/>
-      <c r="AO66" s="362"/>
-      <c r="AP66" s="362"/>
-      <c r="AQ66" s="362"/>
-      <c r="AR66" s="362"/>
-      <c r="AS66" s="362"/>
-      <c r="AT66" s="362"/>
-      <c r="AU66" s="362"/>
-      <c r="AV66" s="363"/>
+      <c r="Y66" s="368"/>
+      <c r="Z66" s="368"/>
+      <c r="AA66" s="368"/>
+      <c r="AB66" s="368"/>
+      <c r="AC66" s="368"/>
+      <c r="AD66" s="368"/>
+      <c r="AE66" s="368"/>
+      <c r="AF66" s="368"/>
+      <c r="AG66" s="368"/>
+      <c r="AH66" s="368"/>
+      <c r="AI66" s="368"/>
+      <c r="AJ66" s="368"/>
+      <c r="AK66" s="368"/>
+      <c r="AL66" s="368"/>
+      <c r="AM66" s="368"/>
+      <c r="AN66" s="368"/>
+      <c r="AO66" s="368"/>
+      <c r="AP66" s="368"/>
+      <c r="AQ66" s="368"/>
+      <c r="AR66" s="368"/>
+      <c r="AS66" s="368"/>
+      <c r="AT66" s="368"/>
+      <c r="AU66" s="368"/>
+      <c r="AV66" s="369"/>
       <c r="AW66" s="6"/>
     </row>
     <row r="67" spans="1:49" ht="13.5" customHeight="1">
@@ -16563,7 +16566,7 @@
       <c r="A126" s="3"/>
       <c r="C126" s="170"/>
       <c r="D126" s="115" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E126" s="116"/>
       <c r="F126" s="172"/>
@@ -16676,7 +16679,7 @@
       <c r="A128" s="3"/>
       <c r="C128" s="170"/>
       <c r="D128" s="115" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E128" s="116"/>
       <c r="F128" s="172"/>
@@ -17676,28 +17679,28 @@
       <c r="K149" s="160"/>
       <c r="L149" s="160"/>
       <c r="M149" s="160"/>
-      <c r="N149" s="342"/>
-      <c r="O149" s="342"/>
-      <c r="P149" s="342"/>
-      <c r="Q149" s="342"/>
-      <c r="R149" s="342"/>
-      <c r="S149" s="342"/>
-      <c r="T149" s="342"/>
-      <c r="U149" s="342"/>
-      <c r="V149" s="342"/>
-      <c r="W149" s="342"/>
-      <c r="X149" s="342"/>
-      <c r="Y149" s="342"/>
-      <c r="Z149" s="342"/>
-      <c r="AA149" s="342"/>
-      <c r="AB149" s="342"/>
-      <c r="AC149" s="342"/>
-      <c r="AD149" s="342"/>
-      <c r="AE149" s="342"/>
-      <c r="AF149" s="342"/>
-      <c r="AG149" s="342"/>
-      <c r="AH149" s="342"/>
-      <c r="AI149" s="342"/>
+      <c r="N149" s="348"/>
+      <c r="O149" s="348"/>
+      <c r="P149" s="348"/>
+      <c r="Q149" s="348"/>
+      <c r="R149" s="348"/>
+      <c r="S149" s="348"/>
+      <c r="T149" s="348"/>
+      <c r="U149" s="348"/>
+      <c r="V149" s="348"/>
+      <c r="W149" s="348"/>
+      <c r="X149" s="348"/>
+      <c r="Y149" s="348"/>
+      <c r="Z149" s="348"/>
+      <c r="AA149" s="348"/>
+      <c r="AB149" s="348"/>
+      <c r="AC149" s="348"/>
+      <c r="AD149" s="348"/>
+      <c r="AE149" s="348"/>
+      <c r="AF149" s="348"/>
+      <c r="AG149" s="348"/>
+      <c r="AH149" s="348"/>
+      <c r="AI149" s="348"/>
       <c r="AJ149" s="163"/>
       <c r="AK149" s="162"/>
       <c r="AL149" s="162"/>
@@ -17712,19 +17715,19 @@
       <c r="AU149" s="162"/>
       <c r="AV149" s="5"/>
       <c r="AW149" s="6"/>
-      <c r="AY149" s="343"/>
-      <c r="AZ149" s="343"/>
-      <c r="BA149" s="343"/>
-      <c r="BB149" s="343"/>
-      <c r="BC149" s="343"/>
-      <c r="BD149" s="343"/>
-      <c r="BE149" s="343"/>
-      <c r="BF149" s="343"/>
-      <c r="BG149" s="343"/>
-      <c r="BH149" s="343"/>
-      <c r="BI149" s="343"/>
-      <c r="BJ149" s="343"/>
-      <c r="BK149" s="343"/>
+      <c r="AY149" s="350"/>
+      <c r="AZ149" s="350"/>
+      <c r="BA149" s="350"/>
+      <c r="BB149" s="350"/>
+      <c r="BC149" s="350"/>
+      <c r="BD149" s="350"/>
+      <c r="BE149" s="350"/>
+      <c r="BF149" s="350"/>
+      <c r="BG149" s="350"/>
+      <c r="BH149" s="350"/>
+      <c r="BI149" s="350"/>
+      <c r="BJ149" s="350"/>
+      <c r="BK149" s="350"/>
     </row>
     <row r="150" spans="1:63" ht="15.9" customHeight="1">
       <c r="A150" s="3"/>
@@ -17788,28 +17791,28 @@
       <c r="K151" s="160"/>
       <c r="L151" s="160"/>
       <c r="M151" s="160"/>
-      <c r="N151" s="344"/>
-      <c r="O151" s="344"/>
-      <c r="P151" s="344"/>
-      <c r="Q151" s="344"/>
-      <c r="R151" s="344"/>
-      <c r="S151" s="344"/>
-      <c r="T151" s="344"/>
-      <c r="U151" s="344"/>
-      <c r="V151" s="344"/>
-      <c r="W151" s="344"/>
-      <c r="X151" s="344"/>
-      <c r="Y151" s="344"/>
-      <c r="Z151" s="344"/>
-      <c r="AA151" s="344"/>
-      <c r="AB151" s="344"/>
-      <c r="AC151" s="344"/>
-      <c r="AD151" s="344"/>
-      <c r="AE151" s="344"/>
-      <c r="AF151" s="344"/>
-      <c r="AG151" s="344"/>
-      <c r="AH151" s="344"/>
-      <c r="AI151" s="344"/>
+      <c r="N151" s="351"/>
+      <c r="O151" s="351"/>
+      <c r="P151" s="351"/>
+      <c r="Q151" s="351"/>
+      <c r="R151" s="351"/>
+      <c r="S151" s="351"/>
+      <c r="T151" s="351"/>
+      <c r="U151" s="351"/>
+      <c r="V151" s="351"/>
+      <c r="W151" s="351"/>
+      <c r="X151" s="351"/>
+      <c r="Y151" s="351"/>
+      <c r="Z151" s="351"/>
+      <c r="AA151" s="351"/>
+      <c r="AB151" s="351"/>
+      <c r="AC151" s="351"/>
+      <c r="AD151" s="351"/>
+      <c r="AE151" s="351"/>
+      <c r="AF151" s="351"/>
+      <c r="AG151" s="351"/>
+      <c r="AH151" s="351"/>
+      <c r="AI151" s="351"/>
       <c r="AJ151" s="110"/>
       <c r="AK151" s="162"/>
       <c r="AL151" s="162"/>
@@ -18036,62 +18039,62 @@
     <row r="156" spans="1:63" ht="13.5" customHeight="1">
       <c r="A156" s="3"/>
       <c r="D156" s="5"/>
-      <c r="E156" s="345"/>
-      <c r="F156" s="345"/>
-      <c r="G156" s="345"/>
-      <c r="H156" s="345"/>
-      <c r="I156" s="345"/>
-      <c r="J156" s="345"/>
-      <c r="K156" s="345"/>
-      <c r="L156" s="345"/>
-      <c r="M156" s="345"/>
-      <c r="N156" s="345"/>
-      <c r="O156" s="345"/>
-      <c r="P156" s="345"/>
-      <c r="Q156" s="345"/>
-      <c r="R156" s="345"/>
-      <c r="S156" s="345"/>
-      <c r="T156" s="345"/>
-      <c r="U156" s="345"/>
-      <c r="V156" s="345"/>
-      <c r="W156" s="345"/>
-      <c r="X156" s="345"/>
-      <c r="Y156" s="345"/>
-      <c r="Z156" s="345"/>
-      <c r="AA156" s="345"/>
-      <c r="AB156" s="345"/>
-      <c r="AC156" s="345"/>
-      <c r="AD156" s="345"/>
-      <c r="AE156" s="345"/>
-      <c r="AF156" s="345"/>
-      <c r="AG156" s="345"/>
-      <c r="AH156" s="345"/>
-      <c r="AI156" s="345"/>
-      <c r="AJ156" s="345"/>
-      <c r="AK156" s="345"/>
-      <c r="AL156" s="345"/>
-      <c r="AM156" s="345"/>
-      <c r="AN156" s="345"/>
-      <c r="AO156" s="345"/>
-      <c r="AP156" s="345"/>
-      <c r="AQ156" s="345"/>
-      <c r="AR156" s="345"/>
-      <c r="AS156" s="345"/>
-      <c r="AT156" s="345"/>
-      <c r="AU156" s="345"/>
+      <c r="E156" s="349"/>
+      <c r="F156" s="349"/>
+      <c r="G156" s="349"/>
+      <c r="H156" s="349"/>
+      <c r="I156" s="349"/>
+      <c r="J156" s="349"/>
+      <c r="K156" s="349"/>
+      <c r="L156" s="349"/>
+      <c r="M156" s="349"/>
+      <c r="N156" s="349"/>
+      <c r="O156" s="349"/>
+      <c r="P156" s="349"/>
+      <c r="Q156" s="349"/>
+      <c r="R156" s="349"/>
+      <c r="S156" s="349"/>
+      <c r="T156" s="349"/>
+      <c r="U156" s="349"/>
+      <c r="V156" s="349"/>
+      <c r="W156" s="349"/>
+      <c r="X156" s="349"/>
+      <c r="Y156" s="349"/>
+      <c r="Z156" s="349"/>
+      <c r="AA156" s="349"/>
+      <c r="AB156" s="349"/>
+      <c r="AC156" s="349"/>
+      <c r="AD156" s="349"/>
+      <c r="AE156" s="349"/>
+      <c r="AF156" s="349"/>
+      <c r="AG156" s="349"/>
+      <c r="AH156" s="349"/>
+      <c r="AI156" s="349"/>
+      <c r="AJ156" s="349"/>
+      <c r="AK156" s="349"/>
+      <c r="AL156" s="349"/>
+      <c r="AM156" s="349"/>
+      <c r="AN156" s="349"/>
+      <c r="AO156" s="349"/>
+      <c r="AP156" s="349"/>
+      <c r="AQ156" s="349"/>
+      <c r="AR156" s="349"/>
+      <c r="AS156" s="349"/>
+      <c r="AT156" s="349"/>
+      <c r="AU156" s="349"/>
       <c r="AV156" s="5"/>
       <c r="AW156" s="6"/>
     </row>
     <row r="157" spans="1:63" ht="13.5" customHeight="1">
       <c r="A157" s="3"/>
       <c r="D157" s="5"/>
-      <c r="E157" s="345"/>
-      <c r="F157" s="345"/>
-      <c r="G157" s="345"/>
-      <c r="H157" s="345"/>
-      <c r="I157" s="345"/>
-      <c r="J157" s="345"/>
-      <c r="K157" s="345"/>
+      <c r="E157" s="349"/>
+      <c r="F157" s="349"/>
+      <c r="G157" s="349"/>
+      <c r="H157" s="349"/>
+      <c r="I157" s="349"/>
+      <c r="J157" s="349"/>
+      <c r="K157" s="349"/>
       <c r="L157" s="160"/>
       <c r="M157" s="160"/>
       <c r="N157" s="160"/>
@@ -18134,13 +18137,13 @@
     <row r="158" spans="1:63" ht="13.5" customHeight="1">
       <c r="A158" s="3"/>
       <c r="D158" s="5"/>
-      <c r="E158" s="345"/>
-      <c r="F158" s="345"/>
-      <c r="G158" s="345"/>
-      <c r="H158" s="345"/>
-      <c r="I158" s="345"/>
-      <c r="J158" s="345"/>
-      <c r="K158" s="345"/>
+      <c r="E158" s="349"/>
+      <c r="F158" s="349"/>
+      <c r="G158" s="349"/>
+      <c r="H158" s="349"/>
+      <c r="I158" s="349"/>
+      <c r="J158" s="349"/>
+      <c r="K158" s="349"/>
       <c r="L158" s="160"/>
       <c r="M158" s="160"/>
       <c r="N158" s="160"/>
@@ -18183,13 +18186,13 @@
     <row r="159" spans="1:63" ht="13.5" customHeight="1">
       <c r="A159" s="3"/>
       <c r="D159" s="5"/>
-      <c r="E159" s="345"/>
-      <c r="F159" s="345"/>
-      <c r="G159" s="345"/>
-      <c r="H159" s="345"/>
-      <c r="I159" s="345"/>
-      <c r="J159" s="345"/>
-      <c r="K159" s="345"/>
+      <c r="E159" s="349"/>
+      <c r="F159" s="349"/>
+      <c r="G159" s="349"/>
+      <c r="H159" s="349"/>
+      <c r="I159" s="349"/>
+      <c r="J159" s="349"/>
+      <c r="K159" s="349"/>
       <c r="L159" s="160"/>
       <c r="M159" s="160"/>
       <c r="N159" s="160"/>
@@ -18232,13 +18235,13 @@
     <row r="160" spans="1:63" ht="13.5" customHeight="1">
       <c r="A160" s="3"/>
       <c r="D160" s="5"/>
-      <c r="E160" s="345"/>
-      <c r="F160" s="345"/>
-      <c r="G160" s="345"/>
-      <c r="H160" s="345"/>
-      <c r="I160" s="345"/>
-      <c r="J160" s="345"/>
-      <c r="K160" s="345"/>
+      <c r="E160" s="349"/>
+      <c r="F160" s="349"/>
+      <c r="G160" s="349"/>
+      <c r="H160" s="349"/>
+      <c r="I160" s="349"/>
+      <c r="J160" s="349"/>
+      <c r="K160" s="349"/>
       <c r="L160" s="160"/>
       <c r="M160" s="160"/>
       <c r="N160" s="160"/>
@@ -18530,44 +18533,44 @@
       <c r="F166" s="169"/>
       <c r="G166" s="169"/>
       <c r="H166" s="169"/>
-      <c r="I166" s="345"/>
-      <c r="J166" s="345"/>
-      <c r="K166" s="345"/>
-      <c r="L166" s="345"/>
-      <c r="M166" s="345"/>
-      <c r="N166" s="345"/>
-      <c r="O166" s="345"/>
-      <c r="P166" s="345"/>
-      <c r="Q166" s="345"/>
-      <c r="R166" s="345"/>
-      <c r="S166" s="345"/>
-      <c r="T166" s="345"/>
-      <c r="U166" s="345"/>
-      <c r="V166" s="345"/>
-      <c r="W166" s="345"/>
-      <c r="X166" s="345"/>
-      <c r="Y166" s="345"/>
-      <c r="Z166" s="345"/>
-      <c r="AA166" s="345"/>
-      <c r="AB166" s="345"/>
-      <c r="AC166" s="345"/>
-      <c r="AD166" s="345"/>
-      <c r="AE166" s="345"/>
-      <c r="AF166" s="345"/>
-      <c r="AG166" s="345"/>
-      <c r="AH166" s="345"/>
-      <c r="AI166" s="345"/>
-      <c r="AJ166" s="345"/>
-      <c r="AK166" s="345"/>
-      <c r="AL166" s="345"/>
-      <c r="AM166" s="345"/>
-      <c r="AN166" s="345"/>
-      <c r="AO166" s="345"/>
-      <c r="AP166" s="345"/>
-      <c r="AQ166" s="345"/>
-      <c r="AR166" s="345"/>
-      <c r="AS166" s="345"/>
-      <c r="AT166" s="345"/>
+      <c r="I166" s="349"/>
+      <c r="J166" s="349"/>
+      <c r="K166" s="349"/>
+      <c r="L166" s="349"/>
+      <c r="M166" s="349"/>
+      <c r="N166" s="349"/>
+      <c r="O166" s="349"/>
+      <c r="P166" s="349"/>
+      <c r="Q166" s="349"/>
+      <c r="R166" s="349"/>
+      <c r="S166" s="349"/>
+      <c r="T166" s="349"/>
+      <c r="U166" s="349"/>
+      <c r="V166" s="349"/>
+      <c r="W166" s="349"/>
+      <c r="X166" s="349"/>
+      <c r="Y166" s="349"/>
+      <c r="Z166" s="349"/>
+      <c r="AA166" s="349"/>
+      <c r="AB166" s="349"/>
+      <c r="AC166" s="349"/>
+      <c r="AD166" s="349"/>
+      <c r="AE166" s="349"/>
+      <c r="AF166" s="349"/>
+      <c r="AG166" s="349"/>
+      <c r="AH166" s="349"/>
+      <c r="AI166" s="349"/>
+      <c r="AJ166" s="349"/>
+      <c r="AK166" s="349"/>
+      <c r="AL166" s="349"/>
+      <c r="AM166" s="349"/>
+      <c r="AN166" s="349"/>
+      <c r="AO166" s="349"/>
+      <c r="AP166" s="349"/>
+      <c r="AQ166" s="349"/>
+      <c r="AR166" s="349"/>
+      <c r="AS166" s="349"/>
+      <c r="AT166" s="349"/>
       <c r="AU166" s="107"/>
       <c r="AV166" s="5"/>
       <c r="AW166" s="6"/>
@@ -18575,10 +18578,10 @@
     <row r="167" spans="1:49" ht="13.5" customHeight="1">
       <c r="A167" s="3"/>
       <c r="D167" s="109"/>
-      <c r="E167" s="340"/>
-      <c r="F167" s="340"/>
-      <c r="G167" s="340"/>
-      <c r="H167" s="340"/>
+      <c r="E167" s="346"/>
+      <c r="F167" s="346"/>
+      <c r="G167" s="346"/>
+      <c r="H167" s="346"/>
       <c r="I167" s="107"/>
       <c r="J167" s="107"/>
       <c r="K167" s="107"/>
@@ -18624,10 +18627,10 @@
     <row r="168" spans="1:49" ht="13.5" customHeight="1">
       <c r="A168" s="3"/>
       <c r="D168" s="109"/>
-      <c r="E168" s="341"/>
-      <c r="F168" s="341"/>
-      <c r="G168" s="341"/>
-      <c r="H168" s="341"/>
+      <c r="E168" s="347"/>
+      <c r="F168" s="347"/>
+      <c r="G168" s="347"/>
+      <c r="H168" s="347"/>
       <c r="I168" s="107"/>
       <c r="J168" s="107"/>
       <c r="K168" s="107"/>
@@ -19318,17 +19321,17 @@
       <c r="AA1" s="244" t="s">
         <v>100</v>
       </c>
-      <c r="AB1" s="367"/>
-      <c r="AC1" s="367"/>
-      <c r="AD1" s="367"/>
-      <c r="AE1" s="367"/>
-      <c r="AF1" s="367"/>
-      <c r="AG1" s="367"/>
-      <c r="AH1" s="367"/>
-      <c r="AI1" s="367"/>
-      <c r="AJ1" s="367"/>
-      <c r="AK1" s="367"/>
-      <c r="AL1" s="368"/>
+      <c r="AB1" s="373"/>
+      <c r="AC1" s="373"/>
+      <c r="AD1" s="373"/>
+      <c r="AE1" s="373"/>
+      <c r="AF1" s="373"/>
+      <c r="AG1" s="373"/>
+      <c r="AH1" s="373"/>
+      <c r="AI1" s="373"/>
+      <c r="AJ1" s="373"/>
+      <c r="AK1" s="373"/>
+      <c r="AL1" s="374"/>
       <c r="AM1" s="215" t="s">
         <v>4</v>
       </c>
@@ -19379,34 +19382,34 @@
       <c r="S2" s="232"/>
       <c r="T2" s="232"/>
       <c r="U2" s="233"/>
-      <c r="V2" s="364"/>
-      <c r="W2" s="365"/>
-      <c r="X2" s="365"/>
-      <c r="Y2" s="365"/>
-      <c r="Z2" s="366"/>
-      <c r="AA2" s="369"/>
-      <c r="AB2" s="370"/>
-      <c r="AC2" s="370"/>
-      <c r="AD2" s="370"/>
-      <c r="AE2" s="370"/>
-      <c r="AF2" s="370"/>
-      <c r="AG2" s="370"/>
-      <c r="AH2" s="370"/>
-      <c r="AI2" s="370"/>
-      <c r="AJ2" s="370"/>
-      <c r="AK2" s="370"/>
-      <c r="AL2" s="371"/>
-      <c r="AM2" s="372" t="s">
+      <c r="V2" s="370"/>
+      <c r="W2" s="371"/>
+      <c r="X2" s="371"/>
+      <c r="Y2" s="371"/>
+      <c r="Z2" s="372"/>
+      <c r="AA2" s="375"/>
+      <c r="AB2" s="376"/>
+      <c r="AC2" s="376"/>
+      <c r="AD2" s="376"/>
+      <c r="AE2" s="376"/>
+      <c r="AF2" s="376"/>
+      <c r="AG2" s="376"/>
+      <c r="AH2" s="376"/>
+      <c r="AI2" s="376"/>
+      <c r="AJ2" s="376"/>
+      <c r="AK2" s="376"/>
+      <c r="AL2" s="377"/>
+      <c r="AM2" s="381" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="373"/>
-      <c r="AO2" s="374"/>
-      <c r="AP2" s="375"/>
-      <c r="AQ2" s="376"/>
-      <c r="AR2" s="372" t="s">
+      <c r="AN2" s="382"/>
+      <c r="AO2" s="383"/>
+      <c r="AP2" s="384"/>
+      <c r="AQ2" s="385"/>
+      <c r="AR2" s="381" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="373"/>
+      <c r="AS2" s="382"/>
       <c r="AT2" s="225"/>
       <c r="AU2" s="226"/>
       <c r="AV2" s="226"/>
@@ -19869,16 +19872,16 @@
       <c r="E10" s="71">
         <v>1</v>
       </c>
-      <c r="F10" s="389" t="s">
+      <c r="F10" s="395" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="390"/>
-      <c r="H10" s="390"/>
-      <c r="I10" s="390"/>
-      <c r="J10" s="390"/>
-      <c r="K10" s="390"/>
-      <c r="L10" s="390"/>
-      <c r="M10" s="391"/>
+      <c r="G10" s="396"/>
+      <c r="H10" s="396"/>
+      <c r="I10" s="396"/>
+      <c r="J10" s="396"/>
+      <c r="K10" s="396"/>
+      <c r="L10" s="396"/>
+      <c r="M10" s="397"/>
       <c r="N10" s="91" t="s">
         <v>117</v>
       </c>
@@ -19920,51 +19923,51 @@
       <c r="AV10" s="5"/>
       <c r="AW10" s="6"/>
       <c r="AY10" s="141"/>
-      <c r="AZ10" s="378"/>
-      <c r="BA10" s="378"/>
-      <c r="BB10" s="378"/>
-      <c r="BC10" s="378"/>
-      <c r="BD10" s="378"/>
-      <c r="BE10" s="378"/>
+      <c r="AZ10" s="379"/>
+      <c r="BA10" s="379"/>
+      <c r="BB10" s="379"/>
+      <c r="BC10" s="379"/>
+      <c r="BD10" s="379"/>
+      <c r="BE10" s="379"/>
       <c r="BF10" s="142"/>
       <c r="BG10" s="142"/>
       <c r="BH10" s="142"/>
       <c r="BI10" s="142"/>
-      <c r="BJ10" s="379"/>
-      <c r="BK10" s="379"/>
-      <c r="BL10" s="379"/>
-      <c r="BM10" s="379"/>
-      <c r="BN10" s="379"/>
-      <c r="BO10" s="379"/>
-      <c r="BP10" s="379"/>
-      <c r="BQ10" s="379"/>
-      <c r="BR10" s="379"/>
-      <c r="BS10" s="379"/>
-      <c r="BT10" s="379"/>
-      <c r="BU10" s="379"/>
-      <c r="BV10" s="379"/>
-      <c r="BW10" s="379"/>
-      <c r="BX10" s="379"/>
-      <c r="BY10" s="379"/>
-      <c r="BZ10" s="379"/>
-      <c r="CA10" s="379"/>
-      <c r="CB10" s="379"/>
-      <c r="CC10" s="379"/>
-      <c r="CD10" s="379"/>
-      <c r="CE10" s="379"/>
-      <c r="CF10" s="379"/>
-      <c r="CG10" s="379"/>
-      <c r="CH10" s="379"/>
-      <c r="CI10" s="379"/>
-      <c r="CJ10" s="379"/>
-      <c r="CK10" s="379"/>
-      <c r="CL10" s="379"/>
-      <c r="CM10" s="379"/>
-      <c r="CN10" s="379"/>
-      <c r="CO10" s="379"/>
-      <c r="CP10" s="379"/>
-      <c r="CQ10" s="379"/>
-      <c r="CR10" s="379"/>
+      <c r="BJ10" s="380"/>
+      <c r="BK10" s="380"/>
+      <c r="BL10" s="380"/>
+      <c r="BM10" s="380"/>
+      <c r="BN10" s="380"/>
+      <c r="BO10" s="380"/>
+      <c r="BP10" s="380"/>
+      <c r="BQ10" s="380"/>
+      <c r="BR10" s="380"/>
+      <c r="BS10" s="380"/>
+      <c r="BT10" s="380"/>
+      <c r="BU10" s="380"/>
+      <c r="BV10" s="380"/>
+      <c r="BW10" s="380"/>
+      <c r="BX10" s="380"/>
+      <c r="BY10" s="380"/>
+      <c r="BZ10" s="380"/>
+      <c r="CA10" s="380"/>
+      <c r="CB10" s="380"/>
+      <c r="CC10" s="380"/>
+      <c r="CD10" s="380"/>
+      <c r="CE10" s="380"/>
+      <c r="CF10" s="380"/>
+      <c r="CG10" s="380"/>
+      <c r="CH10" s="380"/>
+      <c r="CI10" s="380"/>
+      <c r="CJ10" s="380"/>
+      <c r="CK10" s="380"/>
+      <c r="CL10" s="380"/>
+      <c r="CM10" s="380"/>
+      <c r="CN10" s="380"/>
+      <c r="CO10" s="380"/>
+      <c r="CP10" s="380"/>
+      <c r="CQ10" s="380"/>
+      <c r="CR10" s="380"/>
     </row>
     <row r="11" spans="1:96" s="64" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="3"/>
@@ -19974,16 +19977,16 @@
       <c r="E11" s="77">
         <v>2</v>
       </c>
-      <c r="F11" s="392" t="s">
+      <c r="F11" s="398" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="393"/>
-      <c r="H11" s="393"/>
-      <c r="I11" s="393"/>
-      <c r="J11" s="393"/>
-      <c r="K11" s="393"/>
-      <c r="L11" s="393"/>
-      <c r="M11" s="394"/>
+      <c r="G11" s="399"/>
+      <c r="H11" s="399"/>
+      <c r="I11" s="399"/>
+      <c r="J11" s="399"/>
+      <c r="K11" s="399"/>
+      <c r="L11" s="399"/>
+      <c r="M11" s="400"/>
       <c r="N11" s="102" t="s">
         <v>118</v>
       </c>
@@ -20079,16 +20082,16 @@
       <c r="E12" s="77">
         <v>3</v>
       </c>
-      <c r="F12" s="392" t="s">
+      <c r="F12" s="398" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="393"/>
-      <c r="H12" s="393"/>
-      <c r="I12" s="393"/>
-      <c r="J12" s="393"/>
-      <c r="K12" s="393"/>
-      <c r="L12" s="393"/>
-      <c r="M12" s="394"/>
+      <c r="G12" s="399"/>
+      <c r="H12" s="399"/>
+      <c r="I12" s="399"/>
+      <c r="J12" s="399"/>
+      <c r="K12" s="399"/>
+      <c r="L12" s="399"/>
+      <c r="M12" s="400"/>
       <c r="N12" s="102" t="s">
         <v>119</v>
       </c>
@@ -20184,16 +20187,16 @@
       <c r="E13" s="185">
         <v>4</v>
       </c>
-      <c r="F13" s="395" t="s">
+      <c r="F13" s="401" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="396"/>
-      <c r="H13" s="396"/>
-      <c r="I13" s="396"/>
-      <c r="J13" s="396"/>
-      <c r="K13" s="396"/>
-      <c r="L13" s="396"/>
-      <c r="M13" s="397"/>
+      <c r="G13" s="402"/>
+      <c r="H13" s="402"/>
+      <c r="I13" s="402"/>
+      <c r="J13" s="402"/>
+      <c r="K13" s="402"/>
+      <c r="L13" s="402"/>
+      <c r="M13" s="403"/>
       <c r="N13" s="186" t="s">
         <v>120</v>
       </c>
@@ -20633,20 +20636,20 @@
       <c r="AI20" s="89"/>
       <c r="AJ20" s="89"/>
       <c r="AK20" s="89"/>
-      <c r="AL20" s="386" t="s">
+      <c r="AL20" s="392" t="s">
         <v>74</v>
       </c>
-      <c r="AM20" s="387"/>
-      <c r="AN20" s="387"/>
-      <c r="AO20" s="388"/>
-      <c r="AP20" s="386" t="s">
+      <c r="AM20" s="393"/>
+      <c r="AN20" s="393"/>
+      <c r="AO20" s="394"/>
+      <c r="AP20" s="392" t="s">
         <v>121</v>
       </c>
-      <c r="AQ20" s="387"/>
-      <c r="AR20" s="387"/>
-      <c r="AS20" s="387"/>
-      <c r="AT20" s="387"/>
-      <c r="AU20" s="388"/>
+      <c r="AQ20" s="393"/>
+      <c r="AR20" s="393"/>
+      <c r="AS20" s="393"/>
+      <c r="AT20" s="393"/>
+      <c r="AU20" s="394"/>
       <c r="AV20" s="5"/>
       <c r="AW20" s="6"/>
       <c r="AY20" s="141"/>
@@ -20704,34 +20707,34 @@
       <c r="E21" s="71">
         <v>1</v>
       </c>
-      <c r="F21" s="389" t="s">
+      <c r="F21" s="395" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="390"/>
-      <c r="H21" s="390"/>
-      <c r="I21" s="390"/>
-      <c r="J21" s="390"/>
-      <c r="K21" s="390"/>
-      <c r="L21" s="390"/>
-      <c r="M21" s="391"/>
-      <c r="N21" s="355" t="s">
+      <c r="G21" s="396"/>
+      <c r="H21" s="396"/>
+      <c r="I21" s="396"/>
+      <c r="J21" s="396"/>
+      <c r="K21" s="396"/>
+      <c r="L21" s="396"/>
+      <c r="M21" s="397"/>
+      <c r="N21" s="361" t="s">
         <v>123</v>
       </c>
-      <c r="O21" s="356"/>
-      <c r="P21" s="356"/>
-      <c r="Q21" s="356"/>
-      <c r="R21" s="356"/>
-      <c r="S21" s="356"/>
-      <c r="T21" s="356"/>
-      <c r="U21" s="356"/>
-      <c r="V21" s="356"/>
-      <c r="W21" s="356"/>
-      <c r="X21" s="356"/>
-      <c r="Y21" s="356"/>
-      <c r="Z21" s="356"/>
-      <c r="AA21" s="356"/>
-      <c r="AB21" s="356"/>
-      <c r="AC21" s="357"/>
+      <c r="O21" s="362"/>
+      <c r="P21" s="362"/>
+      <c r="Q21" s="362"/>
+      <c r="R21" s="362"/>
+      <c r="S21" s="362"/>
+      <c r="T21" s="362"/>
+      <c r="U21" s="362"/>
+      <c r="V21" s="362"/>
+      <c r="W21" s="362"/>
+      <c r="X21" s="362"/>
+      <c r="Y21" s="362"/>
+      <c r="Z21" s="362"/>
+      <c r="AA21" s="362"/>
+      <c r="AB21" s="362"/>
+      <c r="AC21" s="363"/>
       <c r="AD21" s="91"/>
       <c r="AE21" s="92"/>
       <c r="AF21" s="92"/>
@@ -20740,12 +20743,12 @@
       <c r="AI21" s="92"/>
       <c r="AJ21" s="92"/>
       <c r="AK21" s="93"/>
-      <c r="AL21" s="355" t="s">
+      <c r="AL21" s="361" t="s">
         <v>122</v>
       </c>
-      <c r="AM21" s="356"/>
-      <c r="AN21" s="356"/>
-      <c r="AO21" s="357"/>
+      <c r="AM21" s="362"/>
+      <c r="AN21" s="362"/>
+      <c r="AO21" s="363"/>
       <c r="AP21" s="92"/>
       <c r="AQ21" s="92"/>
       <c r="AR21" s="92"/>
@@ -20809,34 +20812,34 @@
       <c r="E22" s="77">
         <v>2</v>
       </c>
-      <c r="F22" s="392" t="s">
+      <c r="F22" s="398" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="393"/>
-      <c r="H22" s="393"/>
-      <c r="I22" s="393"/>
-      <c r="J22" s="393"/>
-      <c r="K22" s="393"/>
-      <c r="L22" s="393"/>
-      <c r="M22" s="394"/>
-      <c r="N22" s="355" t="s">
+      <c r="G22" s="399"/>
+      <c r="H22" s="399"/>
+      <c r="I22" s="399"/>
+      <c r="J22" s="399"/>
+      <c r="K22" s="399"/>
+      <c r="L22" s="399"/>
+      <c r="M22" s="400"/>
+      <c r="N22" s="361" t="s">
         <v>123</v>
       </c>
-      <c r="O22" s="356"/>
-      <c r="P22" s="356"/>
-      <c r="Q22" s="356"/>
-      <c r="R22" s="356"/>
-      <c r="S22" s="356"/>
-      <c r="T22" s="356"/>
-      <c r="U22" s="356"/>
-      <c r="V22" s="356"/>
-      <c r="W22" s="356"/>
-      <c r="X22" s="356"/>
-      <c r="Y22" s="356"/>
-      <c r="Z22" s="356"/>
-      <c r="AA22" s="356"/>
-      <c r="AB22" s="356"/>
-      <c r="AC22" s="357"/>
+      <c r="O22" s="362"/>
+      <c r="P22" s="362"/>
+      <c r="Q22" s="362"/>
+      <c r="R22" s="362"/>
+      <c r="S22" s="362"/>
+      <c r="T22" s="362"/>
+      <c r="U22" s="362"/>
+      <c r="V22" s="362"/>
+      <c r="W22" s="362"/>
+      <c r="X22" s="362"/>
+      <c r="Y22" s="362"/>
+      <c r="Z22" s="362"/>
+      <c r="AA22" s="362"/>
+      <c r="AB22" s="362"/>
+      <c r="AC22" s="363"/>
       <c r="AD22" s="102"/>
       <c r="AE22" s="103"/>
       <c r="AF22" s="103"/>
@@ -20845,12 +20848,12 @@
       <c r="AI22" s="103"/>
       <c r="AJ22" s="103"/>
       <c r="AK22" s="104"/>
-      <c r="AL22" s="355" t="s">
+      <c r="AL22" s="361" t="s">
         <v>122</v>
       </c>
-      <c r="AM22" s="356"/>
-      <c r="AN22" s="356"/>
-      <c r="AO22" s="357"/>
+      <c r="AM22" s="362"/>
+      <c r="AN22" s="362"/>
+      <c r="AO22" s="363"/>
       <c r="AP22" s="103"/>
       <c r="AQ22" s="103"/>
       <c r="AR22" s="103"/>
@@ -20870,9 +20873,9 @@
       <c r="BG22" s="145"/>
       <c r="BH22" s="145"/>
       <c r="BI22" s="145"/>
-      <c r="BJ22" s="380"/>
-      <c r="BK22" s="380"/>
-      <c r="BL22" s="380"/>
+      <c r="BJ22" s="386"/>
+      <c r="BK22" s="386"/>
+      <c r="BL22" s="386"/>
       <c r="BM22" s="145"/>
       <c r="BN22" s="145"/>
       <c r="BO22" s="144"/>
@@ -20914,34 +20917,34 @@
       <c r="E23" s="77">
         <v>3</v>
       </c>
-      <c r="F23" s="392" t="s">
+      <c r="F23" s="398" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="393"/>
-      <c r="H23" s="393"/>
-      <c r="I23" s="393"/>
-      <c r="J23" s="393"/>
-      <c r="K23" s="393"/>
-      <c r="L23" s="393"/>
-      <c r="M23" s="394"/>
-      <c r="N23" s="355" t="s">
+      <c r="G23" s="399"/>
+      <c r="H23" s="399"/>
+      <c r="I23" s="399"/>
+      <c r="J23" s="399"/>
+      <c r="K23" s="399"/>
+      <c r="L23" s="399"/>
+      <c r="M23" s="400"/>
+      <c r="N23" s="361" t="s">
         <v>123</v>
       </c>
-      <c r="O23" s="356"/>
-      <c r="P23" s="356"/>
-      <c r="Q23" s="356"/>
-      <c r="R23" s="356"/>
-      <c r="S23" s="356"/>
-      <c r="T23" s="356"/>
-      <c r="U23" s="356"/>
-      <c r="V23" s="356"/>
-      <c r="W23" s="356"/>
-      <c r="X23" s="356"/>
-      <c r="Y23" s="356"/>
-      <c r="Z23" s="356"/>
-      <c r="AA23" s="356"/>
-      <c r="AB23" s="356"/>
-      <c r="AC23" s="357"/>
+      <c r="O23" s="362"/>
+      <c r="P23" s="362"/>
+      <c r="Q23" s="362"/>
+      <c r="R23" s="362"/>
+      <c r="S23" s="362"/>
+      <c r="T23" s="362"/>
+      <c r="U23" s="362"/>
+      <c r="V23" s="362"/>
+      <c r="W23" s="362"/>
+      <c r="X23" s="362"/>
+      <c r="Y23" s="362"/>
+      <c r="Z23" s="362"/>
+      <c r="AA23" s="362"/>
+      <c r="AB23" s="362"/>
+      <c r="AC23" s="363"/>
       <c r="AD23" s="102"/>
       <c r="AE23" s="103"/>
       <c r="AF23" s="103"/>
@@ -20950,12 +20953,12 @@
       <c r="AI23" s="103"/>
       <c r="AJ23" s="103"/>
       <c r="AK23" s="104"/>
-      <c r="AL23" s="355" t="s">
+      <c r="AL23" s="361" t="s">
         <v>122</v>
       </c>
-      <c r="AM23" s="356"/>
-      <c r="AN23" s="356"/>
-      <c r="AO23" s="357"/>
+      <c r="AM23" s="362"/>
+      <c r="AN23" s="362"/>
+      <c r="AO23" s="363"/>
       <c r="AP23" s="103"/>
       <c r="AQ23" s="103"/>
       <c r="AR23" s="103"/>
@@ -20975,9 +20978,9 @@
       <c r="BG23" s="145"/>
       <c r="BH23" s="145"/>
       <c r="BI23" s="145"/>
-      <c r="BJ23" s="380"/>
-      <c r="BK23" s="380"/>
-      <c r="BL23" s="380"/>
+      <c r="BJ23" s="386"/>
+      <c r="BK23" s="386"/>
+      <c r="BL23" s="386"/>
       <c r="BM23" s="145"/>
       <c r="BN23" s="145"/>
       <c r="BO23" s="144"/>
@@ -21019,34 +21022,34 @@
       <c r="E24" s="130">
         <v>4</v>
       </c>
-      <c r="F24" s="395" t="s">
+      <c r="F24" s="401" t="s">
         <v>105</v>
       </c>
-      <c r="G24" s="396"/>
-      <c r="H24" s="396"/>
-      <c r="I24" s="396"/>
-      <c r="J24" s="396"/>
-      <c r="K24" s="396"/>
-      <c r="L24" s="396"/>
-      <c r="M24" s="397"/>
-      <c r="N24" s="355" t="s">
+      <c r="G24" s="402"/>
+      <c r="H24" s="402"/>
+      <c r="I24" s="402"/>
+      <c r="J24" s="402"/>
+      <c r="K24" s="402"/>
+      <c r="L24" s="402"/>
+      <c r="M24" s="403"/>
+      <c r="N24" s="361" t="s">
         <v>123</v>
       </c>
-      <c r="O24" s="356"/>
-      <c r="P24" s="356"/>
-      <c r="Q24" s="356"/>
-      <c r="R24" s="356"/>
-      <c r="S24" s="356"/>
-      <c r="T24" s="356"/>
-      <c r="U24" s="356"/>
-      <c r="V24" s="356"/>
-      <c r="W24" s="356"/>
-      <c r="X24" s="356"/>
-      <c r="Y24" s="356"/>
-      <c r="Z24" s="356"/>
-      <c r="AA24" s="356"/>
-      <c r="AB24" s="356"/>
-      <c r="AC24" s="357"/>
+      <c r="O24" s="362"/>
+      <c r="P24" s="362"/>
+      <c r="Q24" s="362"/>
+      <c r="R24" s="362"/>
+      <c r="S24" s="362"/>
+      <c r="T24" s="362"/>
+      <c r="U24" s="362"/>
+      <c r="V24" s="362"/>
+      <c r="W24" s="362"/>
+      <c r="X24" s="362"/>
+      <c r="Y24" s="362"/>
+      <c r="Z24" s="362"/>
+      <c r="AA24" s="362"/>
+      <c r="AB24" s="362"/>
+      <c r="AC24" s="363"/>
       <c r="AD24" s="184"/>
       <c r="AE24" s="105"/>
       <c r="AF24" s="105"/>
@@ -21055,12 +21058,12 @@
       <c r="AI24" s="105"/>
       <c r="AJ24" s="105"/>
       <c r="AK24" s="106"/>
-      <c r="AL24" s="355" t="s">
+      <c r="AL24" s="361" t="s">
         <v>122</v>
       </c>
-      <c r="AM24" s="356"/>
-      <c r="AN24" s="356"/>
-      <c r="AO24" s="357"/>
+      <c r="AM24" s="362"/>
+      <c r="AN24" s="362"/>
+      <c r="AO24" s="363"/>
       <c r="AP24" s="105"/>
       <c r="AQ24" s="105"/>
       <c r="AR24" s="105"/>
@@ -21080,9 +21083,9 @@
       <c r="BG24" s="145"/>
       <c r="BH24" s="145"/>
       <c r="BI24" s="145"/>
-      <c r="BJ24" s="377"/>
-      <c r="BK24" s="377"/>
-      <c r="BL24" s="377"/>
+      <c r="BJ24" s="378"/>
+      <c r="BK24" s="378"/>
+      <c r="BL24" s="378"/>
       <c r="BM24" s="145"/>
       <c r="BN24" s="145"/>
       <c r="BO24" s="144"/>
@@ -21494,16 +21497,16 @@
       <c r="E30" s="189">
         <v>1</v>
       </c>
-      <c r="F30" s="383" t="s">
+      <c r="F30" s="389" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="384"/>
-      <c r="H30" s="384"/>
-      <c r="I30" s="384"/>
-      <c r="J30" s="384"/>
-      <c r="K30" s="384"/>
-      <c r="L30" s="384"/>
-      <c r="M30" s="385"/>
+      <c r="G30" s="390"/>
+      <c r="H30" s="390"/>
+      <c r="I30" s="390"/>
+      <c r="J30" s="390"/>
+      <c r="K30" s="390"/>
+      <c r="L30" s="390"/>
+      <c r="M30" s="391"/>
       <c r="N30" s="190"/>
       <c r="O30" s="62"/>
       <c r="P30" s="62"/>
@@ -21528,11 +21531,11 @@
       <c r="AI30" s="62"/>
       <c r="AJ30" s="62"/>
       <c r="AK30" s="191"/>
-      <c r="AL30" s="383" t="s">
+      <c r="AL30" s="389" t="s">
         <v>80</v>
       </c>
-      <c r="AM30" s="384"/>
-      <c r="AN30" s="385"/>
+      <c r="AM30" s="390"/>
+      <c r="AN30" s="391"/>
       <c r="AO30" s="190"/>
       <c r="AP30" s="62"/>
       <c r="AQ30" s="62"/>
@@ -21559,52 +21562,52 @@
       <c r="E31" s="192">
         <v>2</v>
       </c>
-      <c r="F31" s="381" t="s">
+      <c r="F31" s="387" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="382"/>
-      <c r="H31" s="382"/>
-      <c r="I31" s="382"/>
-      <c r="J31" s="382"/>
-      <c r="K31" s="382"/>
-      <c r="L31" s="382"/>
-      <c r="M31" s="382"/>
-      <c r="N31" s="382"/>
-      <c r="O31" s="382"/>
-      <c r="P31" s="382"/>
-      <c r="Q31" s="382"/>
-      <c r="R31" s="382"/>
-      <c r="S31" s="382"/>
-      <c r="T31" s="382"/>
-      <c r="U31" s="382"/>
-      <c r="V31" s="382"/>
-      <c r="W31" s="382"/>
-      <c r="X31" s="382"/>
-      <c r="Y31" s="382"/>
-      <c r="Z31" s="382"/>
-      <c r="AA31" s="382"/>
-      <c r="AB31" s="382"/>
-      <c r="AC31" s="382"/>
-      <c r="AD31" s="382"/>
-      <c r="AE31" s="382"/>
-      <c r="AF31" s="382"/>
-      <c r="AG31" s="382"/>
-      <c r="AH31" s="382"/>
-      <c r="AI31" s="382"/>
-      <c r="AJ31" s="382"/>
-      <c r="AK31" s="382"/>
-      <c r="AL31" s="383" t="s">
+      <c r="G31" s="388"/>
+      <c r="H31" s="388"/>
+      <c r="I31" s="388"/>
+      <c r="J31" s="388"/>
+      <c r="K31" s="388"/>
+      <c r="L31" s="388"/>
+      <c r="M31" s="388"/>
+      <c r="N31" s="388"/>
+      <c r="O31" s="388"/>
+      <c r="P31" s="388"/>
+      <c r="Q31" s="388"/>
+      <c r="R31" s="388"/>
+      <c r="S31" s="388"/>
+      <c r="T31" s="388"/>
+      <c r="U31" s="388"/>
+      <c r="V31" s="388"/>
+      <c r="W31" s="388"/>
+      <c r="X31" s="388"/>
+      <c r="Y31" s="388"/>
+      <c r="Z31" s="388"/>
+      <c r="AA31" s="388"/>
+      <c r="AB31" s="388"/>
+      <c r="AC31" s="388"/>
+      <c r="AD31" s="388"/>
+      <c r="AE31" s="388"/>
+      <c r="AF31" s="388"/>
+      <c r="AG31" s="388"/>
+      <c r="AH31" s="388"/>
+      <c r="AI31" s="388"/>
+      <c r="AJ31" s="388"/>
+      <c r="AK31" s="388"/>
+      <c r="AL31" s="389" t="s">
         <v>80</v>
       </c>
-      <c r="AM31" s="384"/>
-      <c r="AN31" s="385"/>
-      <c r="AO31" s="382"/>
-      <c r="AP31" s="382"/>
-      <c r="AQ31" s="382"/>
-      <c r="AR31" s="382"/>
-      <c r="AS31" s="382"/>
-      <c r="AT31" s="382"/>
-      <c r="AU31" s="382"/>
+      <c r="AM31" s="390"/>
+      <c r="AN31" s="391"/>
+      <c r="AO31" s="388"/>
+      <c r="AP31" s="388"/>
+      <c r="AQ31" s="388"/>
+      <c r="AR31" s="388"/>
+      <c r="AS31" s="388"/>
+      <c r="AT31" s="388"/>
+      <c r="AU31" s="388"/>
       <c r="AV31" s="5"/>
       <c r="AW31" s="6"/>
       <c r="AY31" s="2"/>
@@ -21847,6 +21850,11 @@
     <mergeCell ref="AM3:AW3"/>
     <mergeCell ref="AR1:AS1"/>
     <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="J1:O3"/>
     <mergeCell ref="P1:U3"/>
@@ -21855,11 +21863,6 @@
     <mergeCell ref="V3:Z3"/>
     <mergeCell ref="AA3:AG3"/>
     <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="30" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -21871,8 +21874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D683B93-80FE-409F-ABE0-08FF461CB2F1}">
   <dimension ref="A1:BF40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="113" zoomScaleSheetLayoutView="141" workbookViewId="0">
-      <selection activeCell="AM21" sqref="AM21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="113" zoomScaleSheetLayoutView="141" workbookViewId="0">
+      <selection activeCell="AK19" sqref="AK19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.5" customHeight="1"/>
@@ -21888,14 +21891,14 @@
       <c r="A1" s="228" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="367"/>
-      <c r="C1" s="367"/>
-      <c r="D1" s="367"/>
-      <c r="E1" s="367"/>
-      <c r="F1" s="367"/>
-      <c r="G1" s="367"/>
-      <c r="H1" s="367"/>
-      <c r="I1" s="368"/>
+      <c r="B1" s="373"/>
+      <c r="C1" s="373"/>
+      <c r="D1" s="373"/>
+      <c r="E1" s="373"/>
+      <c r="F1" s="373"/>
+      <c r="G1" s="373"/>
+      <c r="H1" s="373"/>
+      <c r="I1" s="374"/>
       <c r="J1" s="237" t="s">
         <v>1</v>
       </c>
@@ -21922,17 +21925,17 @@
       <c r="AA1" s="244" t="s">
         <v>100</v>
       </c>
-      <c r="AB1" s="367"/>
-      <c r="AC1" s="367"/>
-      <c r="AD1" s="367"/>
-      <c r="AE1" s="367"/>
-      <c r="AF1" s="367"/>
-      <c r="AG1" s="367"/>
-      <c r="AH1" s="367"/>
-      <c r="AI1" s="367"/>
-      <c r="AJ1" s="367"/>
-      <c r="AK1" s="367"/>
-      <c r="AL1" s="368"/>
+      <c r="AB1" s="373"/>
+      <c r="AC1" s="373"/>
+      <c r="AD1" s="373"/>
+      <c r="AE1" s="373"/>
+      <c r="AF1" s="373"/>
+      <c r="AG1" s="373"/>
+      <c r="AH1" s="373"/>
+      <c r="AI1" s="373"/>
+      <c r="AJ1" s="373"/>
+      <c r="AK1" s="373"/>
+      <c r="AL1" s="374"/>
       <c r="AM1" s="215" t="s">
         <v>4</v>
       </c>
@@ -21962,15 +21965,15 @@
       <c r="BF1" s="2"/>
     </row>
     <row r="2" spans="1:58" s="64" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="399"/>
-      <c r="B2" s="400"/>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="400"/>
-      <c r="H2" s="400"/>
-      <c r="I2" s="401"/>
+      <c r="A2" s="405"/>
+      <c r="B2" s="406"/>
+      <c r="C2" s="406"/>
+      <c r="D2" s="406"/>
+      <c r="E2" s="406"/>
+      <c r="F2" s="406"/>
+      <c r="G2" s="406"/>
+      <c r="H2" s="406"/>
+      <c r="I2" s="407"/>
       <c r="J2" s="231"/>
       <c r="K2" s="232"/>
       <c r="L2" s="232"/>
@@ -21983,30 +21986,30 @@
       <c r="S2" s="232"/>
       <c r="T2" s="232"/>
       <c r="U2" s="233"/>
-      <c r="V2" s="364"/>
-      <c r="W2" s="365"/>
-      <c r="X2" s="365"/>
-      <c r="Y2" s="365"/>
-      <c r="Z2" s="366"/>
-      <c r="AA2" s="369"/>
-      <c r="AB2" s="370"/>
-      <c r="AC2" s="370"/>
-      <c r="AD2" s="370"/>
-      <c r="AE2" s="370"/>
-      <c r="AF2" s="370"/>
-      <c r="AG2" s="370"/>
-      <c r="AH2" s="370"/>
-      <c r="AI2" s="370"/>
-      <c r="AJ2" s="370"/>
-      <c r="AK2" s="370"/>
-      <c r="AL2" s="371"/>
-      <c r="AM2" s="372" t="s">
+      <c r="V2" s="370"/>
+      <c r="W2" s="371"/>
+      <c r="X2" s="371"/>
+      <c r="Y2" s="371"/>
+      <c r="Z2" s="372"/>
+      <c r="AA2" s="375"/>
+      <c r="AB2" s="376"/>
+      <c r="AC2" s="376"/>
+      <c r="AD2" s="376"/>
+      <c r="AE2" s="376"/>
+      <c r="AF2" s="376"/>
+      <c r="AG2" s="376"/>
+      <c r="AH2" s="376"/>
+      <c r="AI2" s="376"/>
+      <c r="AJ2" s="376"/>
+      <c r="AK2" s="376"/>
+      <c r="AL2" s="377"/>
+      <c r="AM2" s="381" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="373"/>
-      <c r="AO2" s="374"/>
-      <c r="AP2" s="375"/>
-      <c r="AQ2" s="376"/>
+      <c r="AN2" s="382"/>
+      <c r="AO2" s="383"/>
+      <c r="AP2" s="384"/>
+      <c r="AQ2" s="385"/>
       <c r="AR2" s="220" t="s">
         <v>7</v>
       </c>
@@ -22025,15 +22028,15 @@
       <c r="BF2" s="2"/>
     </row>
     <row r="3" spans="1:58" s="64" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="402"/>
-      <c r="B3" s="403"/>
-      <c r="C3" s="403"/>
-      <c r="D3" s="403"/>
-      <c r="E3" s="403"/>
-      <c r="F3" s="403"/>
-      <c r="G3" s="403"/>
-      <c r="H3" s="403"/>
-      <c r="I3" s="404"/>
+      <c r="A3" s="408"/>
+      <c r="B3" s="409"/>
+      <c r="C3" s="409"/>
+      <c r="D3" s="409"/>
+      <c r="E3" s="409"/>
+      <c r="F3" s="409"/>
+      <c r="G3" s="409"/>
+      <c r="H3" s="409"/>
+      <c r="I3" s="410"/>
       <c r="J3" s="234"/>
       <c r="K3" s="235"/>
       <c r="L3" s="235"/>
@@ -22215,7 +22218,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="16"/>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="98"/>
@@ -22572,60 +22575,60 @@
       <c r="A12" s="193" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="414" t="s">
+      <c r="B12" s="420" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="415"/>
-      <c r="D12" s="415"/>
-      <c r="E12" s="415"/>
-      <c r="F12" s="415"/>
-      <c r="G12" s="415"/>
-      <c r="H12" s="415"/>
-      <c r="I12" s="416"/>
-      <c r="J12" s="414" t="s">
+      <c r="C12" s="421"/>
+      <c r="D12" s="421"/>
+      <c r="E12" s="421"/>
+      <c r="F12" s="421"/>
+      <c r="G12" s="421"/>
+      <c r="H12" s="421"/>
+      <c r="I12" s="422"/>
+      <c r="J12" s="420" t="s">
         <v>124</v>
       </c>
-      <c r="K12" s="415"/>
-      <c r="L12" s="415"/>
-      <c r="M12" s="415"/>
-      <c r="N12" s="415"/>
-      <c r="O12" s="415"/>
-      <c r="P12" s="415"/>
-      <c r="Q12" s="415"/>
-      <c r="R12" s="415"/>
-      <c r="S12" s="415"/>
-      <c r="T12" s="415"/>
-      <c r="U12" s="415"/>
-      <c r="V12" s="415"/>
-      <c r="W12" s="415"/>
-      <c r="X12" s="415"/>
-      <c r="Y12" s="415"/>
-      <c r="Z12" s="415"/>
-      <c r="AA12" s="415"/>
-      <c r="AB12" s="415"/>
-      <c r="AC12" s="415"/>
-      <c r="AD12" s="415"/>
-      <c r="AE12" s="416"/>
-      <c r="AF12" s="405" t="s">
+      <c r="K12" s="421"/>
+      <c r="L12" s="421"/>
+      <c r="M12" s="421"/>
+      <c r="N12" s="421"/>
+      <c r="O12" s="421"/>
+      <c r="P12" s="421"/>
+      <c r="Q12" s="421"/>
+      <c r="R12" s="421"/>
+      <c r="S12" s="421"/>
+      <c r="T12" s="421"/>
+      <c r="U12" s="421"/>
+      <c r="V12" s="421"/>
+      <c r="W12" s="421"/>
+      <c r="X12" s="421"/>
+      <c r="Y12" s="421"/>
+      <c r="Z12" s="421"/>
+      <c r="AA12" s="421"/>
+      <c r="AB12" s="421"/>
+      <c r="AC12" s="421"/>
+      <c r="AD12" s="421"/>
+      <c r="AE12" s="422"/>
+      <c r="AF12" s="411" t="s">
         <v>125</v>
       </c>
-      <c r="AG12" s="406"/>
-      <c r="AH12" s="406"/>
-      <c r="AI12" s="406"/>
-      <c r="AJ12" s="406"/>
-      <c r="AK12" s="406"/>
-      <c r="AL12" s="406"/>
-      <c r="AM12" s="406"/>
-      <c r="AN12" s="406"/>
-      <c r="AO12" s="406"/>
-      <c r="AP12" s="406"/>
-      <c r="AQ12" s="406"/>
-      <c r="AR12" s="406"/>
-      <c r="AS12" s="406"/>
-      <c r="AT12" s="406"/>
-      <c r="AU12" s="406"/>
-      <c r="AV12" s="406"/>
-      <c r="AW12" s="407"/>
+      <c r="AG12" s="412"/>
+      <c r="AH12" s="412"/>
+      <c r="AI12" s="412"/>
+      <c r="AJ12" s="412"/>
+      <c r="AK12" s="412"/>
+      <c r="AL12" s="412"/>
+      <c r="AM12" s="412"/>
+      <c r="AN12" s="412"/>
+      <c r="AO12" s="412"/>
+      <c r="AP12" s="412"/>
+      <c r="AQ12" s="412"/>
+      <c r="AR12" s="412"/>
+      <c r="AS12" s="412"/>
+      <c r="AT12" s="412"/>
+      <c r="AU12" s="412"/>
+      <c r="AV12" s="412"/>
+      <c r="AW12" s="413"/>
       <c r="AY12" s="2"/>
       <c r="AZ12" s="2"/>
       <c r="BA12" s="2"/>
@@ -22673,26 +22676,26 @@
       <c r="AC13" s="200"/>
       <c r="AD13" s="200"/>
       <c r="AE13" s="201"/>
-      <c r="AF13" s="408" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG13" s="409"/>
-      <c r="AH13" s="409"/>
-      <c r="AI13" s="409"/>
-      <c r="AJ13" s="409"/>
-      <c r="AK13" s="409"/>
-      <c r="AL13" s="409"/>
-      <c r="AM13" s="409"/>
-      <c r="AN13" s="409"/>
-      <c r="AO13" s="409"/>
-      <c r="AP13" s="409"/>
-      <c r="AQ13" s="409"/>
-      <c r="AR13" s="409"/>
-      <c r="AS13" s="409"/>
-      <c r="AT13" s="409"/>
-      <c r="AU13" s="409"/>
-      <c r="AV13" s="409"/>
-      <c r="AW13" s="410"/>
+      <c r="AF13" s="414" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG13" s="415"/>
+      <c r="AH13" s="415"/>
+      <c r="AI13" s="415"/>
+      <c r="AJ13" s="415"/>
+      <c r="AK13" s="415"/>
+      <c r="AL13" s="415"/>
+      <c r="AM13" s="415"/>
+      <c r="AN13" s="415"/>
+      <c r="AO13" s="415"/>
+      <c r="AP13" s="415"/>
+      <c r="AQ13" s="415"/>
+      <c r="AR13" s="415"/>
+      <c r="AS13" s="415"/>
+      <c r="AT13" s="415"/>
+      <c r="AU13" s="415"/>
+      <c r="AV13" s="415"/>
+      <c r="AW13" s="416"/>
       <c r="AY13" s="2"/>
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
@@ -22740,26 +22743,26 @@
       <c r="AC14" s="207"/>
       <c r="AD14" s="207"/>
       <c r="AE14" s="208"/>
-      <c r="AF14" s="411" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG14" s="412"/>
-      <c r="AH14" s="412"/>
-      <c r="AI14" s="412"/>
-      <c r="AJ14" s="412"/>
-      <c r="AK14" s="412"/>
-      <c r="AL14" s="412"/>
-      <c r="AM14" s="412"/>
-      <c r="AN14" s="412"/>
-      <c r="AO14" s="412"/>
-      <c r="AP14" s="412"/>
-      <c r="AQ14" s="412"/>
-      <c r="AR14" s="412"/>
-      <c r="AS14" s="412"/>
-      <c r="AT14" s="412"/>
-      <c r="AU14" s="412"/>
-      <c r="AV14" s="412"/>
-      <c r="AW14" s="413"/>
+      <c r="AF14" s="417" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG14" s="418"/>
+      <c r="AH14" s="418"/>
+      <c r="AI14" s="418"/>
+      <c r="AJ14" s="418"/>
+      <c r="AK14" s="418"/>
+      <c r="AL14" s="418"/>
+      <c r="AM14" s="418"/>
+      <c r="AN14" s="418"/>
+      <c r="AO14" s="418"/>
+      <c r="AP14" s="418"/>
+      <c r="AQ14" s="418"/>
+      <c r="AR14" s="418"/>
+      <c r="AS14" s="418"/>
+      <c r="AT14" s="418"/>
+      <c r="AU14" s="418"/>
+      <c r="AV14" s="418"/>
+      <c r="AW14" s="419"/>
       <c r="AY14" s="2"/>
       <c r="AZ14" s="2"/>
       <c r="BA14" s="2"/>
@@ -22807,26 +22810,26 @@
       <c r="AC15" s="207"/>
       <c r="AD15" s="207"/>
       <c r="AE15" s="208"/>
-      <c r="AF15" s="411" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG15" s="412"/>
-      <c r="AH15" s="412"/>
-      <c r="AI15" s="412"/>
-      <c r="AJ15" s="412"/>
-      <c r="AK15" s="412"/>
-      <c r="AL15" s="412"/>
-      <c r="AM15" s="412"/>
-      <c r="AN15" s="412"/>
-      <c r="AO15" s="412"/>
-      <c r="AP15" s="412"/>
-      <c r="AQ15" s="412"/>
-      <c r="AR15" s="412"/>
-      <c r="AS15" s="412"/>
-      <c r="AT15" s="412"/>
-      <c r="AU15" s="412"/>
-      <c r="AV15" s="412"/>
-      <c r="AW15" s="413"/>
+      <c r="AF15" s="417" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG15" s="418"/>
+      <c r="AH15" s="418"/>
+      <c r="AI15" s="418"/>
+      <c r="AJ15" s="418"/>
+      <c r="AK15" s="418"/>
+      <c r="AL15" s="418"/>
+      <c r="AM15" s="418"/>
+      <c r="AN15" s="418"/>
+      <c r="AO15" s="418"/>
+      <c r="AP15" s="418"/>
+      <c r="AQ15" s="418"/>
+      <c r="AR15" s="418"/>
+      <c r="AS15" s="418"/>
+      <c r="AT15" s="418"/>
+      <c r="AU15" s="418"/>
+      <c r="AV15" s="418"/>
+      <c r="AW15" s="419"/>
       <c r="AY15" s="2"/>
       <c r="AZ15" s="2"/>
       <c r="BA15" s="2"/>
@@ -22874,26 +22877,26 @@
       <c r="AC16" s="207"/>
       <c r="AD16" s="207"/>
       <c r="AE16" s="208"/>
-      <c r="AF16" s="411" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG16" s="412"/>
-      <c r="AH16" s="412"/>
-      <c r="AI16" s="412"/>
-      <c r="AJ16" s="412"/>
-      <c r="AK16" s="412"/>
-      <c r="AL16" s="412"/>
-      <c r="AM16" s="412"/>
-      <c r="AN16" s="412"/>
-      <c r="AO16" s="412"/>
-      <c r="AP16" s="412"/>
-      <c r="AQ16" s="412"/>
-      <c r="AR16" s="412"/>
-      <c r="AS16" s="412"/>
-      <c r="AT16" s="412"/>
-      <c r="AU16" s="412"/>
-      <c r="AV16" s="412"/>
-      <c r="AW16" s="413"/>
+      <c r="AF16" s="417" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG16" s="418"/>
+      <c r="AH16" s="418"/>
+      <c r="AI16" s="418"/>
+      <c r="AJ16" s="418"/>
+      <c r="AK16" s="418"/>
+      <c r="AL16" s="418"/>
+      <c r="AM16" s="418"/>
+      <c r="AN16" s="418"/>
+      <c r="AO16" s="418"/>
+      <c r="AP16" s="418"/>
+      <c r="AQ16" s="418"/>
+      <c r="AR16" s="418"/>
+      <c r="AS16" s="418"/>
+      <c r="AT16" s="418"/>
+      <c r="AU16" s="418"/>
+      <c r="AV16" s="418"/>
+      <c r="AW16" s="419"/>
       <c r="AY16" s="2"/>
       <c r="AZ16" s="2"/>
       <c r="BA16" s="2"/>
@@ -23082,7 +23085,7 @@
     <row r="21" spans="1:58" s="64" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -23133,7 +23136,7 @@
     <row r="22" spans="1:58" s="64" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="98"/>
@@ -23201,15 +23204,15 @@
       <c r="K23" s="158"/>
       <c r="L23" s="158"/>
       <c r="M23" s="158"/>
-      <c r="T23" s="398"/>
-      <c r="U23" s="398"/>
-      <c r="V23" s="398"/>
-      <c r="W23" s="398"/>
-      <c r="X23" s="398"/>
-      <c r="Y23" s="398"/>
-      <c r="Z23" s="398"/>
-      <c r="AA23" s="398"/>
-      <c r="AB23" s="398"/>
+      <c r="T23" s="404"/>
+      <c r="U23" s="404"/>
+      <c r="V23" s="404"/>
+      <c r="W23" s="404"/>
+      <c r="X23" s="404"/>
+      <c r="Y23" s="404"/>
+      <c r="Z23" s="404"/>
+      <c r="AA23" s="404"/>
+      <c r="AB23" s="404"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="2"/>
@@ -23836,7 +23839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F9149D-994E-4978-B55A-3B0602A79730}">
   <dimension ref="A1:BF43"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="75" zoomScaleNormal="113" zoomScaleSheetLayoutView="142" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="75" zoomScaleNormal="113" zoomScaleSheetLayoutView="142" workbookViewId="0">
       <selection activeCell="AH25" sqref="AH25"/>
     </sheetView>
   </sheetViews>
@@ -24180,7 +24183,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="16"/>
       <c r="C6" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="98"/>
@@ -24242,7 +24245,7 @@
       <c r="B7" s="16"/>
       <c r="C7" s="1"/>
       <c r="D7" s="100" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E7" s="98"/>
       <c r="F7" s="5"/>
@@ -24303,7 +24306,7 @@
       <c r="B8" s="16"/>
       <c r="C8" s="1"/>
       <c r="D8" s="100" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E8" s="98"/>
       <c r="F8" s="5"/>
@@ -24364,7 +24367,7 @@
       <c r="B9" s="16"/>
       <c r="C9" s="1"/>
       <c r="E9" s="181" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F9" s="144"/>
       <c r="R9" s="5"/>
@@ -24535,7 +24538,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
       <c r="E12" s="178" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -24874,15 +24877,15 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="M18" s="398"/>
-      <c r="N18" s="398"/>
-      <c r="O18" s="398"/>
-      <c r="P18" s="398"/>
-      <c r="Q18" s="398"/>
-      <c r="R18" s="398"/>
-      <c r="S18" s="398"/>
-      <c r="T18" s="398"/>
-      <c r="U18" s="398"/>
+      <c r="M18" s="404"/>
+      <c r="N18" s="404"/>
+      <c r="O18" s="404"/>
+      <c r="P18" s="404"/>
+      <c r="Q18" s="404"/>
+      <c r="R18" s="404"/>
+      <c r="S18" s="404"/>
+      <c r="T18" s="404"/>
+      <c r="U18" s="404"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
@@ -25693,16 +25696,16 @@
       <c r="BF32" s="2"/>
     </row>
     <row r="43" spans="18:25" ht="13.5" customHeight="1">
-      <c r="R43" s="398" t="s">
+      <c r="R43" s="404" t="s">
         <v>83</v>
       </c>
-      <c r="S43" s="398"/>
-      <c r="T43" s="398"/>
-      <c r="U43" s="398"/>
-      <c r="V43" s="398"/>
-      <c r="W43" s="398"/>
-      <c r="X43" s="398"/>
-      <c r="Y43" s="398"/>
+      <c r="S43" s="404"/>
+      <c r="T43" s="404"/>
+      <c r="U43" s="404"/>
+      <c r="V43" s="404"/>
+      <c r="W43" s="404"/>
+      <c r="X43" s="404"/>
+      <c r="Y43" s="404"/>
     </row>
   </sheetData>
   <mergeCells count="19">
